--- a/docs/Status_Reports/20121106_Group4-FINAL-2.xlsx
+++ b/docs/Status_Reports/20121106_Group4-FINAL-2.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="152">
   <si>
     <t>Team Member Work Summary</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -530,6 +530,9 @@
   </si>
   <si>
     <t>Post Mortem Analysis</t>
+  </si>
+  <si>
+    <t>Post Mortem, Test Plan, Screenshots, Power Point</t>
   </si>
 </sst>
 </file>
@@ -1890,6 +1893,57 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -1898,8 +1952,12 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="49" fontId="33" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -1925,19 +1983,6 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="33" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="36" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1955,192 +2000,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="11" borderId="33" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="15" fontId="10" fillId="11" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2156,9 +2015,198 @@
     <xf numFmtId="14" fontId="12" fillId="11" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="11" borderId="33" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="15" fontId="10" fillId="11" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="33" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -2177,11 +2225,23 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
@@ -2196,15 +2256,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2228,76 +2279,43 @@
     <xf numFmtId="164" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -2312,21 +2330,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -2674,7 +2677,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -2824,7 +2827,7 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -2837,25 +2840,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="105937920"/>
-        <c:axId val="105952000"/>
+        <c:axId val="79801344"/>
+        <c:axId val="79811328"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="105937920"/>
+        <c:axId val="79801344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105952000"/>
+        <c:crossAx val="79811328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="105952000"/>
+        <c:axId val="79811328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2863,21 +2866,20 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105937920"/>
+        <c:crossAx val="79801344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2999,19 +3001,19 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>31.48</c:v>
+                  <c:v>31.32</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27.68</c:v>
+                  <c:v>27.12</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>26.54</c:v>
+                  <c:v>25.86</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>24.259999999999998</c:v>
+                  <c:v>23.34</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23.5</c:v>
+                  <c:v>22.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3065,13 +3067,13 @@
                   <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>23.625</c:v>
+                  <c:v>25.307692307692307</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21.875</c:v>
+                  <c:v>24.23076923076923</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>21</c:v>
+                  <c:v>23.692307692307693</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>21</c:v>
@@ -3128,16 +3130,16 @@
                   <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21.6</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3251,44 +3253,44 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>118.48</c:v>
+                  <c:v>118.32</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>102.97166666666666</c:v>
+                  <c:v>103.09435897435897</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>96.348333333333329</c:v>
+                  <c:v>96.424102564102554</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>90.259999999999991</c:v>
+                  <c:v>90.032307692307697</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>89.5</c:v>
+                  <c:v>86.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="106131456"/>
-        <c:axId val="106132992"/>
+        <c:axId val="81170432"/>
+        <c:axId val="81171968"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="106131456"/>
+        <c:axId val="81170432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106132992"/>
+        <c:crossAx val="81171968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="106132992"/>
+        <c:axId val="81171968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3296,21 +3298,20 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106131456"/>
+        <c:crossAx val="81170432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3708,8 +3709,8 @@
   </sheetPr>
   <dimension ref="A2:T50"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
@@ -3729,41 +3730,41 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:20" ht="23.25">
-      <c r="A2" s="122" t="s">
+      <c r="A2" s="92" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="122"/>
-      <c r="C2" s="122"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="122"/>
-      <c r="I2" s="122"/>
-      <c r="J2" s="122"/>
-      <c r="K2" s="122"/>
-      <c r="L2" s="122"/>
-      <c r="M2" s="122"/>
-      <c r="N2" s="122"/>
-      <c r="O2" s="122"/>
-      <c r="P2" s="122"/>
-      <c r="Q2" s="122"/>
-      <c r="R2" s="122"/>
-      <c r="S2" s="122"/>
-      <c r="T2" s="122"/>
+      <c r="B2" s="92"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="92"/>
+      <c r="L2" s="92"/>
+      <c r="M2" s="92"/>
+      <c r="N2" s="92"/>
+      <c r="O2" s="92"/>
+      <c r="P2" s="92"/>
+      <c r="Q2" s="92"/>
+      <c r="R2" s="92"/>
+      <c r="S2" s="92"/>
+      <c r="T2" s="92"/>
     </row>
     <row r="3" spans="1:20" ht="20.25">
-      <c r="A3" s="124" t="s">
+      <c r="A3" s="94" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="124"/>
-      <c r="C3" s="124"/>
-      <c r="D3" s="124"/>
-      <c r="E3" s="124"/>
-      <c r="F3" s="124"/>
-      <c r="G3" s="124"/>
-      <c r="H3" s="124"/>
-      <c r="I3" s="124"/>
+      <c r="B3" s="94"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="94"/>
+      <c r="I3" s="94"/>
       <c r="J3" s="61"/>
       <c r="K3" s="61"/>
       <c r="L3" s="62"/>
@@ -3771,17 +3772,17 @@
       <c r="N3" s="61"/>
     </row>
     <row r="4" spans="1:20" ht="18">
-      <c r="A4" s="123" t="s">
+      <c r="A4" s="93" t="s">
         <v>55</v>
       </c>
-      <c r="B4" s="123"/>
-      <c r="C4" s="123"/>
-      <c r="D4" s="123"/>
-      <c r="E4" s="123"/>
-      <c r="F4" s="123"/>
-      <c r="G4" s="123"/>
-      <c r="H4" s="123"/>
-      <c r="I4" s="123"/>
+      <c r="B4" s="93"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="93"/>
+      <c r="F4" s="93"/>
+      <c r="G4" s="93"/>
+      <c r="H4" s="93"/>
+      <c r="I4" s="93"/>
       <c r="J4" s="61"/>
       <c r="K4" s="61"/>
       <c r="L4" s="62"/>
@@ -3789,17 +3790,17 @@
       <c r="N4" s="61"/>
     </row>
     <row r="5" spans="1:20" ht="18">
-      <c r="A5" s="123" t="s">
+      <c r="A5" s="93" t="s">
         <v>67</v>
       </c>
-      <c r="B5" s="123"/>
-      <c r="C5" s="123"/>
-      <c r="D5" s="123"/>
-      <c r="E5" s="123"/>
-      <c r="F5" s="123"/>
-      <c r="G5" s="123"/>
-      <c r="H5" s="123"/>
-      <c r="I5" s="123"/>
+      <c r="B5" s="93"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="93"/>
+      <c r="E5" s="93"/>
+      <c r="F5" s="93"/>
+      <c r="G5" s="93"/>
+      <c r="H5" s="93"/>
+      <c r="I5" s="93"/>
       <c r="J5" s="61"/>
       <c r="K5" s="61"/>
       <c r="L5" s="62"/>
@@ -3825,15 +3826,15 @@
       <c r="N6" s="61"/>
     </row>
     <row r="7" spans="1:20" ht="18" customHeight="1">
-      <c r="A7" s="94" t="s">
+      <c r="A7" s="95" t="s">
         <v>51</v>
       </c>
-      <c r="B7" s="94"/>
-      <c r="C7" s="99" t="s">
+      <c r="B7" s="95"/>
+      <c r="C7" s="115" t="s">
         <v>85</v>
       </c>
-      <c r="D7" s="100"/>
-      <c r="E7" s="101"/>
+      <c r="D7" s="116"/>
+      <c r="E7" s="117"/>
       <c r="F7" s="63"/>
       <c r="G7" s="63"/>
       <c r="H7" s="63"/>
@@ -3846,16 +3847,16 @@
       </c>
     </row>
     <row r="8" spans="1:20" ht="18" customHeight="1">
-      <c r="A8" s="94" t="s">
+      <c r="A8" s="95" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="94"/>
-      <c r="C8" s="96" t="str">
+      <c r="B8" s="95"/>
+      <c r="C8" s="112" t="str">
         <f>'Member 1 Timesheet'!D3 &amp; ", " &amp; 'Member 2 Timesheet'!D3 &amp; ", " &amp; 'Member 3 Timesheet'!D3 &amp; ", " &amp; 'Member 4 Timesheet'!D3</f>
         <v>Robin Mays, Thomas Couture, Matthew Powell, Lee Hall</v>
       </c>
-      <c r="D8" s="97"/>
-      <c r="E8" s="98"/>
+      <c r="D8" s="113"/>
+      <c r="E8" s="114"/>
       <c r="F8" s="63"/>
       <c r="G8" s="63"/>
       <c r="H8" s="63"/>
@@ -3867,15 +3868,15 @@
       </c>
     </row>
     <row r="9" spans="1:20" ht="18" customHeight="1">
-      <c r="A9" s="94" t="s">
+      <c r="A9" s="95" t="s">
         <v>68</v>
       </c>
-      <c r="B9" s="94"/>
-      <c r="C9" s="102">
+      <c r="B9" s="95"/>
+      <c r="C9" s="118">
         <v>41219</v>
       </c>
-      <c r="D9" s="103"/>
-      <c r="E9" s="104"/>
+      <c r="D9" s="100"/>
+      <c r="E9" s="101"/>
       <c r="F9" s="86"/>
       <c r="G9" s="86"/>
       <c r="H9" s="86"/>
@@ -3888,15 +3889,15 @@
       </c>
     </row>
     <row r="10" spans="1:20" ht="18" customHeight="1">
-      <c r="A10" s="94" t="s">
+      <c r="A10" s="95" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="94"/>
-      <c r="C10" s="116" t="s">
+      <c r="B10" s="95"/>
+      <c r="C10" s="99" t="s">
         <v>54</v>
       </c>
-      <c r="D10" s="103"/>
-      <c r="E10" s="104"/>
+      <c r="D10" s="100"/>
+      <c r="E10" s="101"/>
       <c r="F10" s="86"/>
       <c r="G10" s="86"/>
       <c r="H10" s="86"/>
@@ -3909,19 +3910,19 @@
       </c>
     </row>
     <row r="11" spans="1:20" ht="54" customHeight="1">
-      <c r="A11" s="95" t="s">
+      <c r="A11" s="111" t="s">
         <v>52</v>
       </c>
-      <c r="B11" s="95"/>
-      <c r="C11" s="117" t="s">
+      <c r="B11" s="111"/>
+      <c r="C11" s="102" t="s">
         <v>83</v>
       </c>
-      <c r="D11" s="118"/>
-      <c r="E11" s="118"/>
-      <c r="F11" s="118"/>
-      <c r="G11" s="118"/>
-      <c r="H11" s="118"/>
-      <c r="I11" s="119"/>
+      <c r="D11" s="103"/>
+      <c r="E11" s="103"/>
+      <c r="F11" s="103"/>
+      <c r="G11" s="103"/>
+      <c r="H11" s="103"/>
+      <c r="I11" s="104"/>
       <c r="L11" s="42" t="s">
         <v>41</v>
       </c>
@@ -3930,19 +3931,19 @@
       </c>
     </row>
     <row r="12" spans="1:20" ht="54" customHeight="1">
-      <c r="A12" s="95" t="s">
+      <c r="A12" s="111" t="s">
         <v>53</v>
       </c>
-      <c r="B12" s="95"/>
-      <c r="C12" s="117" t="s">
+      <c r="B12" s="111"/>
+      <c r="C12" s="102" t="s">
         <v>84</v>
       </c>
-      <c r="D12" s="120"/>
-      <c r="E12" s="120"/>
-      <c r="F12" s="120"/>
-      <c r="G12" s="120"/>
-      <c r="H12" s="120"/>
-      <c r="I12" s="121"/>
+      <c r="D12" s="105"/>
+      <c r="E12" s="105"/>
+      <c r="F12" s="105"/>
+      <c r="G12" s="105"/>
+      <c r="H12" s="105"/>
+      <c r="I12" s="106"/>
       <c r="L12" s="42" t="s">
         <v>27</v>
       </c>
@@ -3960,28 +3961,28 @@
       <c r="H13" s="65"/>
     </row>
     <row r="14" spans="1:20" ht="18" customHeight="1">
-      <c r="A14" s="111" t="s">
+      <c r="A14" s="123" t="s">
         <v>99</v>
       </c>
-      <c r="B14" s="107" t="s">
+      <c r="B14" s="119" t="s">
         <v>100</v>
       </c>
-      <c r="C14" s="108"/>
-      <c r="D14" s="113" t="s">
+      <c r="C14" s="120"/>
+      <c r="D14" s="96" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="114"/>
-      <c r="F14" s="115"/>
-      <c r="G14" s="113" t="s">
+      <c r="E14" s="97"/>
+      <c r="F14" s="98"/>
+      <c r="G14" s="96" t="s">
         <v>24</v>
       </c>
-      <c r="H14" s="114"/>
-      <c r="I14" s="115"/>
+      <c r="H14" s="97"/>
+      <c r="I14" s="98"/>
     </row>
     <row r="15" spans="1:20" ht="38.1" customHeight="1">
-      <c r="A15" s="112"/>
-      <c r="B15" s="109"/>
-      <c r="C15" s="110"/>
+      <c r="A15" s="124"/>
+      <c r="B15" s="121"/>
+      <c r="C15" s="122"/>
       <c r="D15" s="66" t="s">
         <v>17</v>
       </c>
@@ -4005,10 +4006,10 @@
       <c r="A16" s="69" t="s">
         <v>89</v>
       </c>
-      <c r="B16" s="105" t="s">
+      <c r="B16" s="109" t="s">
         <v>143</v>
       </c>
-      <c r="C16" s="93"/>
+      <c r="C16" s="108"/>
       <c r="D16" s="28">
         <v>1</v>
       </c>
@@ -4032,10 +4033,10 @@
       <c r="A17" s="89" t="s">
         <v>90</v>
       </c>
-      <c r="B17" s="105" t="s">
+      <c r="B17" s="109" t="s">
         <v>91</v>
       </c>
-      <c r="C17" s="93"/>
+      <c r="C17" s="108"/>
       <c r="D17" s="28">
         <v>1</v>
       </c>
@@ -4059,10 +4060,10 @@
       <c r="A18" s="89" t="s">
         <v>92</v>
       </c>
-      <c r="B18" s="105" t="s">
+      <c r="B18" s="109" t="s">
         <v>95</v>
       </c>
-      <c r="C18" s="93"/>
+      <c r="C18" s="108"/>
       <c r="D18" s="28">
         <v>1</v>
       </c>
@@ -4086,10 +4087,10 @@
       <c r="A19" s="89" t="s">
         <v>93</v>
       </c>
-      <c r="B19" s="105" t="s">
+      <c r="B19" s="109" t="s">
         <v>94</v>
       </c>
-      <c r="C19" s="93"/>
+      <c r="C19" s="108"/>
       <c r="D19" s="28">
         <v>1</v>
       </c>
@@ -4103,20 +4104,20 @@
         <v>25</v>
       </c>
       <c r="H19" s="28">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I19" s="28">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="24.95" customHeight="1">
       <c r="A20" s="89" t="s">
         <v>96</v>
       </c>
-      <c r="B20" s="105" t="s">
+      <c r="B20" s="109" t="s">
         <v>104</v>
       </c>
-      <c r="C20" s="93"/>
+      <c r="C20" s="108"/>
       <c r="D20" s="28">
         <v>2</v>
       </c>
@@ -4138,10 +4139,10 @@
       <c r="A21" s="89" t="s">
         <v>98</v>
       </c>
-      <c r="B21" s="105" t="s">
+      <c r="B21" s="109" t="s">
         <v>97</v>
       </c>
-      <c r="C21" s="106"/>
+      <c r="C21" s="110"/>
       <c r="D21" s="28">
         <v>2</v>
       </c>
@@ -4163,10 +4164,10 @@
       <c r="A22" s="89" t="s">
         <v>101</v>
       </c>
-      <c r="B22" s="105" t="s">
+      <c r="B22" s="109" t="s">
         <v>144</v>
       </c>
-      <c r="C22" s="106"/>
+      <c r="C22" s="110"/>
       <c r="D22" s="28">
         <v>2</v>
       </c>
@@ -4188,10 +4189,10 @@
       <c r="A23" s="89" t="s">
         <v>105</v>
       </c>
-      <c r="B23" s="105" t="s">
+      <c r="B23" s="109" t="s">
         <v>106</v>
       </c>
-      <c r="C23" s="106"/>
+      <c r="C23" s="110"/>
       <c r="D23" s="28">
         <v>2</v>
       </c>
@@ -4213,10 +4214,10 @@
       <c r="A24" s="89" t="s">
         <v>135</v>
       </c>
-      <c r="B24" s="105" t="s">
+      <c r="B24" s="109" t="s">
         <v>107</v>
       </c>
-      <c r="C24" s="106"/>
+      <c r="C24" s="110"/>
       <c r="D24" s="28">
         <v>2</v>
       </c>
@@ -4238,10 +4239,10 @@
       <c r="A25" s="89" t="s">
         <v>136</v>
       </c>
-      <c r="B25" s="105" t="s">
+      <c r="B25" s="109" t="s">
         <v>108</v>
       </c>
-      <c r="C25" s="106"/>
+      <c r="C25" s="110"/>
       <c r="D25" s="28">
         <v>2</v>
       </c>
@@ -4263,10 +4264,10 @@
       <c r="A26" s="89" t="s">
         <v>137</v>
       </c>
-      <c r="B26" s="105" t="s">
+      <c r="B26" s="109" t="s">
         <v>109</v>
       </c>
-      <c r="C26" s="106"/>
+      <c r="C26" s="110"/>
       <c r="D26" s="28">
         <v>2</v>
       </c>
@@ -4288,10 +4289,10 @@
       <c r="A27" s="89" t="s">
         <v>138</v>
       </c>
-      <c r="B27" s="105" t="s">
+      <c r="B27" s="109" t="s">
         <v>110</v>
       </c>
-      <c r="C27" s="106"/>
+      <c r="C27" s="110"/>
       <c r="D27" s="28">
         <v>2</v>
       </c>
@@ -4313,10 +4314,10 @@
       <c r="A28" s="69" t="s">
         <v>111</v>
       </c>
-      <c r="B28" s="105" t="s">
+      <c r="B28" s="109" t="s">
         <v>139</v>
       </c>
-      <c r="C28" s="106"/>
+      <c r="C28" s="110"/>
       <c r="D28" s="28">
         <v>1</v>
       </c>
@@ -4340,10 +4341,10 @@
       <c r="A29" s="69" t="s">
         <v>140</v>
       </c>
-      <c r="B29" s="105" t="s">
+      <c r="B29" s="109" t="s">
         <v>112</v>
       </c>
-      <c r="C29" s="106"/>
+      <c r="C29" s="110"/>
       <c r="D29" s="28">
         <v>2</v>
       </c>
@@ -4365,10 +4366,10 @@
       <c r="A30" s="69" t="s">
         <v>141</v>
       </c>
-      <c r="B30" s="105" t="s">
+      <c r="B30" s="109" t="s">
         <v>113</v>
       </c>
-      <c r="C30" s="106"/>
+      <c r="C30" s="110"/>
       <c r="D30" s="28">
         <v>2</v>
       </c>
@@ -4390,10 +4391,10 @@
       <c r="A31" s="69" t="s">
         <v>142</v>
       </c>
-      <c r="B31" s="105" t="s">
+      <c r="B31" s="109" t="s">
         <v>114</v>
       </c>
-      <c r="C31" s="106"/>
+      <c r="C31" s="110"/>
       <c r="D31" s="28">
         <v>2</v>
       </c>
@@ -4446,8 +4447,8 @@
     </row>
     <row r="35" spans="1:9" ht="24.95" customHeight="1">
       <c r="A35" s="69"/>
-      <c r="B35" s="92"/>
-      <c r="C35" s="93"/>
+      <c r="B35" s="107"/>
+      <c r="C35" s="108"/>
       <c r="D35" s="28"/>
       <c r="E35" s="28"/>
       <c r="F35" s="28"/>
@@ -4457,8 +4458,8 @@
     </row>
     <row r="36" spans="1:9" ht="24.95" customHeight="1">
       <c r="A36" s="69"/>
-      <c r="B36" s="92"/>
-      <c r="C36" s="93"/>
+      <c r="B36" s="107"/>
+      <c r="C36" s="108"/>
       <c r="D36" s="28"/>
       <c r="E36" s="28"/>
       <c r="F36" s="28"/>
@@ -4468,8 +4469,8 @@
     </row>
     <row r="37" spans="1:9" ht="24.95" customHeight="1">
       <c r="A37" s="69"/>
-      <c r="B37" s="92"/>
-      <c r="C37" s="93"/>
+      <c r="B37" s="107"/>
+      <c r="C37" s="108"/>
       <c r="D37" s="28"/>
       <c r="E37" s="28"/>
       <c r="F37" s="28"/>
@@ -4479,8 +4480,8 @@
     </row>
     <row r="38" spans="1:9" ht="24.95" customHeight="1">
       <c r="A38" s="69"/>
-      <c r="B38" s="92"/>
-      <c r="C38" s="93"/>
+      <c r="B38" s="107"/>
+      <c r="C38" s="108"/>
       <c r="D38" s="28"/>
       <c r="E38" s="28"/>
       <c r="F38" s="28"/>
@@ -4490,8 +4491,8 @@
     </row>
     <row r="39" spans="1:9" ht="24.95" customHeight="1">
       <c r="A39" s="69"/>
-      <c r="B39" s="92"/>
-      <c r="C39" s="93"/>
+      <c r="B39" s="107"/>
+      <c r="C39" s="108"/>
       <c r="D39" s="28"/>
       <c r="E39" s="28"/>
       <c r="F39" s="28"/>
@@ -4501,8 +4502,8 @@
     </row>
     <row r="40" spans="1:9" ht="24.95" customHeight="1">
       <c r="A40" s="69"/>
-      <c r="B40" s="92"/>
-      <c r="C40" s="93"/>
+      <c r="B40" s="107"/>
+      <c r="C40" s="108"/>
       <c r="D40" s="28"/>
       <c r="E40" s="28"/>
       <c r="F40" s="28"/>
@@ -4529,11 +4530,11 @@
       </c>
       <c r="H41" s="68">
         <f>SUM(H16:H40)</f>
-        <v>32.5</v>
+        <v>35.5</v>
       </c>
       <c r="I41" s="68">
         <f>SUM(I16:I40)</f>
-        <v>59.5</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="30" customHeight="1">
@@ -4629,16 +4630,22 @@
   </sheetData>
   <sheetProtection formatCells="0" insertRows="0" deleteRows="0"/>
   <mergeCells count="42">
-    <mergeCell ref="A2:T2"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:I11"/>
-    <mergeCell ref="C12:I12"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B14:C15"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A10:B10"/>
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B37:C37"/>
@@ -4655,22 +4662,16 @@
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B14:C15"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:I11"/>
+    <mergeCell ref="C12:I12"/>
+    <mergeCell ref="A2:T2"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A9:B9"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="3">
@@ -4697,8 +4698,8 @@
   </sheetPr>
   <dimension ref="A1:AA48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W28" sqref="W28"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W16" sqref="W16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
@@ -4710,101 +4711,101 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="23.25">
-      <c r="A1" s="122" t="s">
+      <c r="A1" s="92" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="122"/>
-      <c r="C1" s="122"/>
-      <c r="D1" s="122"/>
-      <c r="E1" s="122"/>
-      <c r="F1" s="122"/>
-      <c r="G1" s="122"/>
-      <c r="H1" s="122"/>
-      <c r="I1" s="122"/>
-      <c r="J1" s="122"/>
-      <c r="K1" s="122"/>
-      <c r="L1" s="122"/>
-      <c r="M1" s="122"/>
-      <c r="N1" s="122"/>
-      <c r="O1" s="122"/>
-      <c r="P1" s="122"/>
-      <c r="Q1" s="122"/>
-      <c r="R1" s="122"/>
-      <c r="S1" s="122"/>
-      <c r="T1" s="122"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
+      <c r="M1" s="92"/>
+      <c r="N1" s="92"/>
+      <c r="O1" s="92"/>
+      <c r="P1" s="92"/>
+      <c r="Q1" s="92"/>
+      <c r="R1" s="92"/>
+      <c r="S1" s="92"/>
+      <c r="T1" s="92"/>
     </row>
     <row r="3" spans="1:20" ht="24.95" customHeight="1">
-      <c r="A3" s="138" t="s">
+      <c r="A3" s="149" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="139"/>
-      <c r="C3" s="174">
+      <c r="B3" s="150"/>
+      <c r="C3" s="129">
         <f>'Status Report Template'!C9:E9</f>
         <v>41219</v>
       </c>
-      <c r="D3" s="175"/>
-      <c r="E3" s="175"/>
-      <c r="F3" s="175"/>
-      <c r="G3" s="175"/>
-      <c r="H3" s="175"/>
-      <c r="I3" s="175"/>
-      <c r="J3" s="175"/>
-      <c r="K3" s="175"/>
-      <c r="L3" s="175"/>
-      <c r="M3" s="172"/>
-      <c r="N3" s="173"/>
+      <c r="D3" s="130"/>
+      <c r="E3" s="130"/>
+      <c r="F3" s="130"/>
+      <c r="G3" s="130"/>
+      <c r="H3" s="130"/>
+      <c r="I3" s="130"/>
+      <c r="J3" s="130"/>
+      <c r="K3" s="130"/>
+      <c r="L3" s="130"/>
+      <c r="M3" s="127"/>
+      <c r="N3" s="128"/>
     </row>
     <row r="4" spans="1:20" ht="24.95" customHeight="1">
-      <c r="A4" s="138" t="s">
+      <c r="A4" s="149" t="s">
         <v>59</v>
       </c>
-      <c r="B4" s="139"/>
-      <c r="C4" s="170" t="str">
+      <c r="B4" s="150"/>
+      <c r="C4" s="125" t="str">
         <f>'Member 1 Timesheet'!D3 &amp; ", " &amp; 'Member 2 Timesheet'!D3 &amp; ", " &amp; 'Member 3 Timesheet'!D3 &amp; ", " &amp; 'Member 4 Timesheet'!D3</f>
         <v>Robin Mays, Thomas Couture, Matthew Powell, Lee Hall</v>
       </c>
-      <c r="D4" s="171"/>
-      <c r="E4" s="171"/>
-      <c r="F4" s="171"/>
-      <c r="G4" s="171"/>
-      <c r="H4" s="171"/>
-      <c r="I4" s="171"/>
-      <c r="J4" s="171"/>
-      <c r="K4" s="171"/>
-      <c r="L4" s="171"/>
-      <c r="M4" s="172"/>
-      <c r="N4" s="173"/>
+      <c r="D4" s="126"/>
+      <c r="E4" s="126"/>
+      <c r="F4" s="126"/>
+      <c r="G4" s="126"/>
+      <c r="H4" s="126"/>
+      <c r="I4" s="126"/>
+      <c r="J4" s="126"/>
+      <c r="K4" s="126"/>
+      <c r="L4" s="126"/>
+      <c r="M4" s="127"/>
+      <c r="N4" s="128"/>
     </row>
     <row r="5" spans="1:20" ht="24.95" customHeight="1">
-      <c r="A5" s="138" t="s">
+      <c r="A5" s="149" t="s">
         <v>60</v>
       </c>
-      <c r="B5" s="139"/>
-      <c r="C5" s="170" t="str">
+      <c r="B5" s="150"/>
+      <c r="C5" s="125" t="str">
         <f>'Status Report Template'!C7</f>
         <v>Forager - Group 4</v>
       </c>
-      <c r="D5" s="171"/>
-      <c r="E5" s="171"/>
-      <c r="F5" s="171"/>
-      <c r="G5" s="171"/>
-      <c r="H5" s="171"/>
-      <c r="I5" s="171"/>
-      <c r="J5" s="171"/>
-      <c r="K5" s="171"/>
-      <c r="L5" s="171"/>
-      <c r="M5" s="172"/>
-      <c r="N5" s="173"/>
+      <c r="D5" s="126"/>
+      <c r="E5" s="126"/>
+      <c r="F5" s="126"/>
+      <c r="G5" s="126"/>
+      <c r="H5" s="126"/>
+      <c r="I5" s="126"/>
+      <c r="J5" s="126"/>
+      <c r="K5" s="126"/>
+      <c r="L5" s="126"/>
+      <c r="M5" s="127"/>
+      <c r="N5" s="128"/>
     </row>
     <row r="6" spans="1:20" ht="13.5" thickBot="1">
       <c r="A6" s="44"/>
       <c r="B6" s="43"/>
-      <c r="C6" s="163"/>
-      <c r="D6" s="163"/>
-      <c r="E6" s="163"/>
-      <c r="F6" s="163"/>
-      <c r="G6" s="163"/>
-      <c r="H6" s="163"/>
+      <c r="C6" s="148"/>
+      <c r="D6" s="148"/>
+      <c r="E6" s="148"/>
+      <c r="F6" s="148"/>
+      <c r="G6" s="148"/>
+      <c r="H6" s="148"/>
       <c r="I6" s="45"/>
       <c r="J6" s="45"/>
       <c r="K6" s="45"/>
@@ -4818,68 +4819,68 @@
       <c r="S6" s="45"/>
     </row>
     <row r="7" spans="1:20" ht="18" customHeight="1">
-      <c r="A7" s="164" t="s">
+      <c r="A7" s="151" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="164"/>
-      <c r="C7" s="146" t="s">
+      <c r="B7" s="151"/>
+      <c r="C7" s="154" t="s">
         <v>61</v>
       </c>
-      <c r="D7" s="147"/>
-      <c r="E7" s="147"/>
-      <c r="F7" s="147"/>
-      <c r="G7" s="147"/>
-      <c r="H7" s="147"/>
-      <c r="I7" s="147"/>
-      <c r="J7" s="147"/>
-      <c r="K7" s="147"/>
-      <c r="L7" s="147"/>
-      <c r="M7" s="147"/>
-      <c r="N7" s="147"/>
-      <c r="O7" s="147"/>
-      <c r="P7" s="147"/>
-      <c r="Q7" s="147"/>
-      <c r="R7" s="147"/>
-      <c r="S7" s="147"/>
-      <c r="T7" s="148"/>
+      <c r="D7" s="155"/>
+      <c r="E7" s="155"/>
+      <c r="F7" s="155"/>
+      <c r="G7" s="155"/>
+      <c r="H7" s="155"/>
+      <c r="I7" s="155"/>
+      <c r="J7" s="155"/>
+      <c r="K7" s="155"/>
+      <c r="L7" s="155"/>
+      <c r="M7" s="155"/>
+      <c r="N7" s="155"/>
+      <c r="O7" s="155"/>
+      <c r="P7" s="155"/>
+      <c r="Q7" s="155"/>
+      <c r="R7" s="155"/>
+      <c r="S7" s="155"/>
+      <c r="T7" s="156"/>
     </row>
     <row r="8" spans="1:20" ht="18" customHeight="1">
-      <c r="A8" s="165"/>
-      <c r="B8" s="165"/>
-      <c r="C8" s="167" t="s">
+      <c r="A8" s="152"/>
+      <c r="B8" s="152"/>
+      <c r="C8" s="136" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="144"/>
-      <c r="E8" s="145"/>
-      <c r="F8" s="143" t="s">
+      <c r="D8" s="134"/>
+      <c r="E8" s="137"/>
+      <c r="F8" s="133" t="s">
         <v>62</v>
       </c>
-      <c r="G8" s="144"/>
-      <c r="H8" s="176"/>
-      <c r="I8" s="167" t="s">
+      <c r="G8" s="134"/>
+      <c r="H8" s="135"/>
+      <c r="I8" s="136" t="s">
         <v>63</v>
       </c>
-      <c r="J8" s="144"/>
-      <c r="K8" s="145"/>
-      <c r="L8" s="143" t="s">
+      <c r="J8" s="134"/>
+      <c r="K8" s="137"/>
+      <c r="L8" s="133" t="s">
         <v>64</v>
       </c>
-      <c r="M8" s="144"/>
-      <c r="N8" s="176"/>
-      <c r="O8" s="167" t="s">
+      <c r="M8" s="134"/>
+      <c r="N8" s="135"/>
+      <c r="O8" s="136" t="s">
         <v>65</v>
       </c>
-      <c r="P8" s="144"/>
-      <c r="Q8" s="145"/>
-      <c r="R8" s="143" t="s">
+      <c r="P8" s="134"/>
+      <c r="Q8" s="137"/>
+      <c r="R8" s="133" t="s">
         <v>29</v>
       </c>
-      <c r="S8" s="144"/>
-      <c r="T8" s="145"/>
+      <c r="S8" s="134"/>
+      <c r="T8" s="137"/>
     </row>
     <row r="9" spans="1:20" ht="24.95" customHeight="1">
-      <c r="A9" s="166"/>
-      <c r="B9" s="166"/>
+      <c r="A9" s="153"/>
+      <c r="B9" s="153"/>
       <c r="C9" s="46" t="s">
         <v>49</v>
       </c>
@@ -4936,11 +4937,11 @@
       </c>
     </row>
     <row r="10" spans="1:20" ht="18" customHeight="1">
-      <c r="A10" s="149" t="str">
+      <c r="A10" s="147" t="str">
         <f>'Member 1 Timesheet'!D3</f>
         <v>Robin Mays</v>
       </c>
-      <c r="B10" s="150"/>
+      <c r="B10" s="146"/>
       <c r="C10" s="23">
         <v>4</v>
       </c>
@@ -4999,11 +5000,11 @@
       </c>
     </row>
     <row r="11" spans="1:20" ht="18" customHeight="1">
-      <c r="A11" s="149" t="str">
+      <c r="A11" s="147" t="str">
         <f>'Member 2 Timesheet'!D3</f>
         <v>Thomas Couture</v>
       </c>
-      <c r="B11" s="150"/>
+      <c r="B11" s="146"/>
       <c r="C11" s="11">
         <v>4</v>
       </c>
@@ -5062,11 +5063,11 @@
       </c>
     </row>
     <row r="12" spans="1:20" ht="18" customHeight="1">
-      <c r="A12" s="162" t="str">
+      <c r="A12" s="145" t="str">
         <f>'Member 3 Timesheet'!D3</f>
         <v>Matthew Powell</v>
       </c>
-      <c r="B12" s="150"/>
+      <c r="B12" s="146"/>
       <c r="C12" s="11">
         <v>4</v>
       </c>
@@ -5107,29 +5108,29 @@
         <v>4</v>
       </c>
       <c r="P12" s="28">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="Q12" s="12">
-        <v>1.5</v>
+        <v>6.5</v>
       </c>
       <c r="R12" s="29">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="S12" s="29">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="T12" s="16">
         <f t="shared" si="0"/>
-        <v>17.5</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="18" customHeight="1" thickBot="1">
-      <c r="A13" s="149" t="str">
+      <c r="A13" s="147" t="str">
         <f>'Member 4 Timesheet'!D3</f>
         <v>Lee Hall</v>
       </c>
-      <c r="B13" s="150"/>
+      <c r="B13" s="146"/>
       <c r="C13" s="17">
         <v>4</v>
       </c>
@@ -5246,11 +5247,11 @@
       </c>
       <c r="P14" s="38">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="Q14" s="34">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R14" s="40">
         <f t="shared" si="2"/>
@@ -5258,11 +5259,11 @@
       </c>
       <c r="S14" s="41">
         <f t="shared" si="2"/>
-        <v>42.5</v>
+        <v>47.5</v>
       </c>
       <c r="T14" s="34">
         <f t="shared" si="2"/>
-        <v>96.5</v>
+        <v>101.5</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="13.5" thickBot="1">
@@ -5280,79 +5281,79 @@
       <c r="S15" s="43"/>
     </row>
     <row r="16" spans="1:20" ht="18" customHeight="1" thickBot="1">
-      <c r="A16" s="151" t="s">
+      <c r="A16" s="159" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="152"/>
-      <c r="C16" s="155" t="s">
+      <c r="B16" s="160"/>
+      <c r="C16" s="166" t="s">
         <v>66</v>
       </c>
-      <c r="D16" s="156"/>
-      <c r="E16" s="156"/>
-      <c r="F16" s="156"/>
-      <c r="G16" s="156"/>
-      <c r="H16" s="156"/>
-      <c r="I16" s="156"/>
-      <c r="J16" s="156"/>
-      <c r="K16" s="156"/>
-      <c r="L16" s="156"/>
-      <c r="M16" s="156"/>
-      <c r="N16" s="156"/>
-      <c r="O16" s="156"/>
-      <c r="P16" s="156"/>
-      <c r="Q16" s="156"/>
-      <c r="R16" s="156"/>
-      <c r="S16" s="156"/>
-      <c r="T16" s="157"/>
+      <c r="D16" s="167"/>
+      <c r="E16" s="167"/>
+      <c r="F16" s="167"/>
+      <c r="G16" s="167"/>
+      <c r="H16" s="167"/>
+      <c r="I16" s="167"/>
+      <c r="J16" s="167"/>
+      <c r="K16" s="167"/>
+      <c r="L16" s="167"/>
+      <c r="M16" s="167"/>
+      <c r="N16" s="167"/>
+      <c r="O16" s="167"/>
+      <c r="P16" s="167"/>
+      <c r="Q16" s="167"/>
+      <c r="R16" s="167"/>
+      <c r="S16" s="167"/>
+      <c r="T16" s="168"/>
     </row>
     <row r="17" spans="1:27" ht="18" customHeight="1">
-      <c r="A17" s="153"/>
-      <c r="B17" s="154"/>
-      <c r="C17" s="140" t="str">
+      <c r="A17" s="161"/>
+      <c r="B17" s="162"/>
+      <c r="C17" s="138" t="str">
         <f>'Status Report Template'!A16</f>
         <v>Crawler 1</v>
       </c>
-      <c r="D17" s="133"/>
-      <c r="E17" s="140" t="str">
+      <c r="D17" s="132"/>
+      <c r="E17" s="138" t="str">
         <f>'Status Report Template'!A17</f>
         <v>Crawler 2</v>
       </c>
-      <c r="F17" s="133"/>
-      <c r="G17" s="140" t="str">
+      <c r="F17" s="132"/>
+      <c r="G17" s="138" t="str">
         <f>'Status Report Template'!A18</f>
         <v>Report 1</v>
       </c>
-      <c r="H17" s="133"/>
-      <c r="I17" s="140" t="str">
+      <c r="H17" s="132"/>
+      <c r="I17" s="138" t="str">
         <f>'Status Report Template'!A19</f>
         <v>Report 2</v>
       </c>
-      <c r="J17" s="133"/>
-      <c r="K17" s="140" t="str">
+      <c r="J17" s="132"/>
+      <c r="K17" s="138" t="str">
         <f>'Status Report Template'!A20</f>
         <v>Report 3</v>
       </c>
-      <c r="L17" s="133"/>
-      <c r="M17" s="132" t="str">
+      <c r="L17" s="132"/>
+      <c r="M17" s="131" t="str">
         <f>'Status Report Template'!A21</f>
         <v>Report 4</v>
       </c>
-      <c r="N17" s="133"/>
-      <c r="O17" s="132" t="str">
+      <c r="N17" s="132"/>
+      <c r="O17" s="131" t="str">
         <f>'Status Report Template'!A22</f>
         <v>Report 5</v>
       </c>
-      <c r="P17" s="133"/>
-      <c r="Q17" s="132" t="str">
+      <c r="P17" s="132"/>
+      <c r="Q17" s="131" t="str">
         <f>'Status Report Template'!A23</f>
         <v>Report 6</v>
       </c>
-      <c r="R17" s="133"/>
-      <c r="S17" s="132" t="str">
+      <c r="R17" s="132"/>
+      <c r="S17" s="131" t="str">
         <f>'Status Report Template'!A24</f>
         <v>Crawler 3</v>
       </c>
-      <c r="T17" s="133"/>
+      <c r="T17" s="132"/>
       <c r="U17" s="43"/>
       <c r="V17" s="43"/>
       <c r="W17" s="43"/>
@@ -5362,8 +5363,8 @@
       <c r="AA17" s="43"/>
     </row>
     <row r="18" spans="1:27" ht="24.95" customHeight="1">
-      <c r="A18" s="153"/>
-      <c r="B18" s="154"/>
+      <c r="A18" s="161"/>
+      <c r="B18" s="162"/>
       <c r="C18" s="46" t="s">
         <v>46</v>
       </c>
@@ -5422,11 +5423,11 @@
       <c r="V18" s="43"/>
     </row>
     <row r="19" spans="1:27" ht="18" customHeight="1">
-      <c r="A19" s="134" t="str">
+      <c r="A19" s="139" t="str">
         <f>A10</f>
         <v>Robin Mays</v>
       </c>
-      <c r="B19" s="135"/>
+      <c r="B19" s="158"/>
       <c r="C19" s="11"/>
       <c r="D19" s="12"/>
       <c r="E19" s="11"/>
@@ -5455,11 +5456,11 @@
       <c r="T19" s="12"/>
     </row>
     <row r="20" spans="1:27" ht="18" customHeight="1">
-      <c r="A20" s="134" t="str">
+      <c r="A20" s="139" t="str">
         <f>A11</f>
         <v>Thomas Couture</v>
       </c>
-      <c r="B20" s="135"/>
+      <c r="B20" s="158"/>
       <c r="C20" s="11"/>
       <c r="D20" s="12"/>
       <c r="E20" s="11"/>
@@ -5471,10 +5472,10 @@
         <v>16.5</v>
       </c>
       <c r="I20" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J20" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K20" s="13"/>
       <c r="L20" s="14"/>
@@ -5490,11 +5491,11 @@
       <c r="V20" s="43"/>
     </row>
     <row r="21" spans="1:27" ht="18" customHeight="1">
-      <c r="A21" s="134" t="str">
+      <c r="A21" s="139" t="str">
         <f>A12</f>
         <v>Matthew Powell</v>
       </c>
-      <c r="B21" s="135"/>
+      <c r="B21" s="158"/>
       <c r="C21" s="11"/>
       <c r="D21" s="12"/>
       <c r="E21" s="11">
@@ -5531,7 +5532,7 @@
         <f>A13</f>
         <v>Lee Hall</v>
       </c>
-      <c r="B22" s="142"/>
+      <c r="B22" s="176"/>
       <c r="C22" s="17"/>
       <c r="D22" s="18">
         <v>8</v>
@@ -5547,10 +5548,10 @@
         <v>1</v>
       </c>
       <c r="I22" s="17">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J22" s="18">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K22" s="19"/>
       <c r="L22" s="20"/>
@@ -5594,11 +5595,11 @@
       </c>
       <c r="I23" s="30">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J23" s="31">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K23" s="32">
         <f t="shared" si="4"/>
@@ -5642,56 +5643,56 @@
       </c>
     </row>
     <row r="24" spans="1:27" ht="18" customHeight="1">
-      <c r="A24" s="151"/>
-      <c r="B24" s="158"/>
-      <c r="C24" s="160" t="str">
+      <c r="A24" s="159"/>
+      <c r="B24" s="169"/>
+      <c r="C24" s="143" t="str">
         <f>'Status Report Template'!A25</f>
         <v>Crawler 4</v>
       </c>
-      <c r="D24" s="161"/>
-      <c r="E24" s="160" t="str">
+      <c r="D24" s="144"/>
+      <c r="E24" s="143" t="str">
         <f>'Status Report Template'!A26</f>
         <v>SSL</v>
       </c>
-      <c r="F24" s="161"/>
-      <c r="G24" s="160" t="str">
+      <c r="F24" s="144"/>
+      <c r="G24" s="143" t="str">
         <f>'Status Report Template'!A27</f>
         <v>Report 7</v>
       </c>
-      <c r="H24" s="161"/>
-      <c r="I24" s="160" t="str">
+      <c r="H24" s="144"/>
+      <c r="I24" s="143" t="str">
         <f>'Status Report Template'!A28</f>
         <v>Login</v>
       </c>
-      <c r="J24" s="161"/>
-      <c r="K24" s="160" t="str">
+      <c r="J24" s="144"/>
+      <c r="K24" s="143" t="str">
         <f>'Status Report Template'!A29</f>
         <v>Crawler 5</v>
       </c>
-      <c r="L24" s="161"/>
-      <c r="M24" s="160" t="str">
+      <c r="L24" s="144"/>
+      <c r="M24" s="143" t="str">
         <f>'Status Report Template'!A30</f>
         <v>Crawler 6</v>
       </c>
-      <c r="N24" s="161"/>
-      <c r="O24" s="160" t="str">
+      <c r="N24" s="144"/>
+      <c r="O24" s="143" t="str">
         <f>'Status Report Template'!A31</f>
         <v>Crawler 7</v>
       </c>
-      <c r="P24" s="161"/>
-      <c r="Q24" s="160">
+      <c r="P24" s="144"/>
+      <c r="Q24" s="143">
         <f>'Status Report Template'!A32</f>
         <v>0</v>
       </c>
-      <c r="R24" s="161"/>
-      <c r="S24" s="136" t="s">
+      <c r="R24" s="144"/>
+      <c r="S24" s="174" t="s">
         <v>29</v>
       </c>
-      <c r="T24" s="137"/>
+      <c r="T24" s="175"/>
     </row>
     <row r="25" spans="1:27" ht="24.95" customHeight="1">
-      <c r="A25" s="153"/>
-      <c r="B25" s="159"/>
+      <c r="A25" s="161"/>
+      <c r="B25" s="170"/>
       <c r="C25" s="46" t="s">
         <v>46</v>
       </c>
@@ -5748,11 +5749,11 @@
       </c>
     </row>
     <row r="26" spans="1:27" ht="18" customHeight="1">
-      <c r="A26" s="134" t="str">
+      <c r="A26" s="139" t="str">
         <f>A10</f>
         <v>Robin Mays</v>
       </c>
-      <c r="B26" s="168"/>
+      <c r="B26" s="140"/>
       <c r="C26" s="11"/>
       <c r="D26" s="12"/>
       <c r="E26" s="11"/>
@@ -5770,20 +5771,20 @@
       <c r="Q26" s="11"/>
       <c r="R26" s="12"/>
       <c r="S26" s="15">
-        <f>Q26+O26+M26+K26+I26+G26+E26+C26+S19+Q19+O19+M19+K19+I19+G19+E19+C19</f>
+        <f t="shared" ref="S26:T29" si="5">Q26+O26+M26+K26+I26+G26+E26+C26+S19+Q19+O19+M19+K19+I19+G19+E19+C19</f>
         <v>8</v>
       </c>
       <c r="T26" s="16">
-        <f>R26+P26+N26+L26+J26+H26+F26+D26+T19+R19+P19+N19+L19+J19+H19+F19+D19</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:27" ht="18" customHeight="1">
-      <c r="A27" s="134" t="str">
+      <c r="A27" s="139" t="str">
         <f>A11</f>
         <v>Thomas Couture</v>
       </c>
-      <c r="B27" s="168"/>
+      <c r="B27" s="140"/>
       <c r="C27" s="11"/>
       <c r="D27" s="12"/>
       <c r="E27" s="11"/>
@@ -5801,20 +5802,20 @@
       <c r="Q27" s="11"/>
       <c r="R27" s="12"/>
       <c r="S27" s="15">
-        <f>Q27+O27+M27+K27+I27+G27+E27+C27+S20+Q20+O20+M20+K20+I20+G20+E20+C20</f>
-        <v>9.5</v>
+        <f t="shared" si="5"/>
+        <v>10.5</v>
       </c>
       <c r="T27" s="16">
-        <f>R27+P27+N27+L27+J27+H27+F27+D27+T20+R20+P20+N20+L20+J20+H20+F20+D20</f>
-        <v>17.5</v>
+        <f t="shared" si="5"/>
+        <v>18.5</v>
       </c>
     </row>
     <row r="28" spans="1:27" ht="18" customHeight="1">
-      <c r="A28" s="134" t="str">
+      <c r="A28" s="139" t="str">
         <f>A12</f>
         <v>Matthew Powell</v>
       </c>
-      <c r="B28" s="168"/>
+      <c r="B28" s="140"/>
       <c r="C28" s="11"/>
       <c r="D28" s="12"/>
       <c r="E28" s="11"/>
@@ -5832,11 +5833,11 @@
       <c r="Q28" s="11"/>
       <c r="R28" s="12"/>
       <c r="S28" s="15">
-        <f>Q28+O28+M28+K28+I28+G28+E28+C28+S21+Q21+O21+M21+K21+I21+G21+E21+C21</f>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="T28" s="16">
-        <f>R28+P28+N28+L28+J28+H28+F28+D28+T21+R21+P21+N21+L21+J21+H21+F21+D21</f>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
     </row>
@@ -5845,7 +5846,7 @@
         <f>A13</f>
         <v>Lee Hall</v>
       </c>
-      <c r="B29" s="169"/>
+      <c r="B29" s="142"/>
       <c r="C29" s="17"/>
       <c r="D29" s="18"/>
       <c r="E29" s="17"/>
@@ -5865,12 +5866,12 @@
       <c r="Q29" s="17"/>
       <c r="R29" s="18"/>
       <c r="S29" s="21">
-        <f>Q29+O29+M29+K29+I29+G29+E29+C29+S22+Q22+O22+M22+K22+I22+G22+E22+C22</f>
-        <v>8</v>
+        <f t="shared" si="5"/>
+        <v>10</v>
       </c>
       <c r="T29" s="22">
-        <f>R29+P29+N29+L29+J29+H29+F29+D29+T22+R22+P22+N22+L22+J22+H22+F22+D22</f>
-        <v>19</v>
+        <f t="shared" si="5"/>
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:27" ht="18" customHeight="1" thickBot="1">
@@ -5879,329 +5880,329 @@
         <v>48</v>
       </c>
       <c r="C30" s="30">
-        <f t="shared" ref="C30:T30" si="5">SUM(C26:C29)</f>
+        <f t="shared" ref="C30:S30" si="6">SUM(C26:C29)</f>
         <v>0</v>
       </c>
       <c r="D30" s="31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E30" s="30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F30" s="31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G30" s="32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H30" s="33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I30" s="30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J30" s="31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="K30" s="32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L30" s="33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M30" s="30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N30" s="31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O30" s="32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P30" s="33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q30" s="30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R30" s="31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S30" s="31">
-        <f t="shared" si="5"/>
-        <v>32.5</v>
+        <f t="shared" si="6"/>
+        <v>35.5</v>
       </c>
       <c r="T30" s="31">
         <f>SUM(T26:T29)</f>
-        <v>59.5</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="31" spans="1:27">
       <c r="H31" s="56"/>
     </row>
     <row r="32" spans="1:27" ht="18" customHeight="1">
-      <c r="A32" s="125" t="s">
+      <c r="A32" s="163" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="126"/>
-      <c r="C32" s="126"/>
-      <c r="D32" s="126"/>
-      <c r="E32" s="126"/>
-      <c r="F32" s="126"/>
-      <c r="G32" s="126"/>
-      <c r="H32" s="126"/>
-      <c r="I32" s="126"/>
-      <c r="J32" s="126"/>
-      <c r="K32" s="126"/>
-      <c r="L32" s="126"/>
-      <c r="M32" s="126"/>
-      <c r="N32" s="126"/>
-      <c r="O32" s="126"/>
-      <c r="P32" s="126"/>
-      <c r="Q32" s="126"/>
-      <c r="R32" s="126"/>
-      <c r="S32" s="126"/>
-      <c r="T32" s="127"/>
+      <c r="B32" s="164"/>
+      <c r="C32" s="164"/>
+      <c r="D32" s="164"/>
+      <c r="E32" s="164"/>
+      <c r="F32" s="164"/>
+      <c r="G32" s="164"/>
+      <c r="H32" s="164"/>
+      <c r="I32" s="164"/>
+      <c r="J32" s="164"/>
+      <c r="K32" s="164"/>
+      <c r="L32" s="164"/>
+      <c r="M32" s="164"/>
+      <c r="N32" s="164"/>
+      <c r="O32" s="164"/>
+      <c r="P32" s="164"/>
+      <c r="Q32" s="164"/>
+      <c r="R32" s="164"/>
+      <c r="S32" s="164"/>
+      <c r="T32" s="165"/>
     </row>
     <row r="33" spans="1:20" ht="54" customHeight="1">
-      <c r="A33" s="105" t="s">
+      <c r="A33" s="109" t="s">
         <v>146</v>
       </c>
-      <c r="B33" s="131"/>
-      <c r="C33" s="131"/>
-      <c r="D33" s="131"/>
-      <c r="E33" s="131"/>
-      <c r="F33" s="131"/>
-      <c r="G33" s="131"/>
-      <c r="H33" s="131"/>
-      <c r="I33" s="131"/>
-      <c r="J33" s="131"/>
-      <c r="K33" s="131"/>
-      <c r="L33" s="131"/>
-      <c r="M33" s="131"/>
-      <c r="N33" s="131"/>
-      <c r="O33" s="131"/>
-      <c r="P33" s="131"/>
-      <c r="Q33" s="131"/>
-      <c r="R33" s="131"/>
-      <c r="S33" s="131"/>
-      <c r="T33" s="93"/>
+      <c r="B33" s="157"/>
+      <c r="C33" s="157"/>
+      <c r="D33" s="157"/>
+      <c r="E33" s="157"/>
+      <c r="F33" s="157"/>
+      <c r="G33" s="157"/>
+      <c r="H33" s="157"/>
+      <c r="I33" s="157"/>
+      <c r="J33" s="157"/>
+      <c r="K33" s="157"/>
+      <c r="L33" s="157"/>
+      <c r="M33" s="157"/>
+      <c r="N33" s="157"/>
+      <c r="O33" s="157"/>
+      <c r="P33" s="157"/>
+      <c r="Q33" s="157"/>
+      <c r="R33" s="157"/>
+      <c r="S33" s="157"/>
+      <c r="T33" s="108"/>
     </row>
     <row r="34" spans="1:20">
       <c r="H34" s="56"/>
     </row>
     <row r="35" spans="1:20" ht="15.75">
-      <c r="A35" s="125" t="s">
+      <c r="A35" s="163" t="s">
         <v>33</v>
       </c>
-      <c r="B35" s="126"/>
-      <c r="C35" s="126"/>
-      <c r="D35" s="126"/>
-      <c r="E35" s="126"/>
-      <c r="F35" s="126"/>
-      <c r="G35" s="126"/>
-      <c r="H35" s="126"/>
-      <c r="I35" s="126"/>
-      <c r="J35" s="126"/>
-      <c r="K35" s="126"/>
-      <c r="L35" s="126"/>
-      <c r="M35" s="126"/>
-      <c r="N35" s="126"/>
-      <c r="O35" s="126"/>
-      <c r="P35" s="126"/>
-      <c r="Q35" s="126"/>
-      <c r="R35" s="126"/>
-      <c r="S35" s="126"/>
-      <c r="T35" s="127"/>
+      <c r="B35" s="164"/>
+      <c r="C35" s="164"/>
+      <c r="D35" s="164"/>
+      <c r="E35" s="164"/>
+      <c r="F35" s="164"/>
+      <c r="G35" s="164"/>
+      <c r="H35" s="164"/>
+      <c r="I35" s="164"/>
+      <c r="J35" s="164"/>
+      <c r="K35" s="164"/>
+      <c r="L35" s="164"/>
+      <c r="M35" s="164"/>
+      <c r="N35" s="164"/>
+      <c r="O35" s="164"/>
+      <c r="P35" s="164"/>
+      <c r="Q35" s="164"/>
+      <c r="R35" s="164"/>
+      <c r="S35" s="164"/>
+      <c r="T35" s="165"/>
     </row>
     <row r="36" spans="1:20" ht="54" customHeight="1">
-      <c r="A36" s="105"/>
-      <c r="B36" s="131"/>
-      <c r="C36" s="131"/>
-      <c r="D36" s="131"/>
-      <c r="E36" s="131"/>
-      <c r="F36" s="131"/>
-      <c r="G36" s="131"/>
-      <c r="H36" s="131"/>
-      <c r="I36" s="131"/>
-      <c r="J36" s="131"/>
-      <c r="K36" s="131"/>
-      <c r="L36" s="131"/>
-      <c r="M36" s="131"/>
-      <c r="N36" s="131"/>
-      <c r="O36" s="131"/>
-      <c r="P36" s="131"/>
-      <c r="Q36" s="131"/>
-      <c r="R36" s="131"/>
-      <c r="S36" s="131"/>
-      <c r="T36" s="93"/>
+      <c r="A36" s="109"/>
+      <c r="B36" s="157"/>
+      <c r="C36" s="157"/>
+      <c r="D36" s="157"/>
+      <c r="E36" s="157"/>
+      <c r="F36" s="157"/>
+      <c r="G36" s="157"/>
+      <c r="H36" s="157"/>
+      <c r="I36" s="157"/>
+      <c r="J36" s="157"/>
+      <c r="K36" s="157"/>
+      <c r="L36" s="157"/>
+      <c r="M36" s="157"/>
+      <c r="N36" s="157"/>
+      <c r="O36" s="157"/>
+      <c r="P36" s="157"/>
+      <c r="Q36" s="157"/>
+      <c r="R36" s="157"/>
+      <c r="S36" s="157"/>
+      <c r="T36" s="108"/>
     </row>
     <row r="37" spans="1:20">
       <c r="H37" s="56"/>
     </row>
     <row r="38" spans="1:20" ht="15.75">
-      <c r="A38" s="125" t="s">
+      <c r="A38" s="163" t="s">
         <v>34</v>
       </c>
-      <c r="B38" s="126"/>
-      <c r="C38" s="126"/>
-      <c r="D38" s="126"/>
-      <c r="E38" s="126"/>
-      <c r="F38" s="126"/>
-      <c r="G38" s="126"/>
-      <c r="H38" s="126"/>
-      <c r="I38" s="126"/>
-      <c r="J38" s="126"/>
-      <c r="K38" s="126"/>
-      <c r="L38" s="126"/>
-      <c r="M38" s="126"/>
-      <c r="N38" s="126"/>
-      <c r="O38" s="126"/>
-      <c r="P38" s="126"/>
-      <c r="Q38" s="126"/>
-      <c r="R38" s="126"/>
-      <c r="S38" s="126"/>
-      <c r="T38" s="127"/>
+      <c r="B38" s="164"/>
+      <c r="C38" s="164"/>
+      <c r="D38" s="164"/>
+      <c r="E38" s="164"/>
+      <c r="F38" s="164"/>
+      <c r="G38" s="164"/>
+      <c r="H38" s="164"/>
+      <c r="I38" s="164"/>
+      <c r="J38" s="164"/>
+      <c r="K38" s="164"/>
+      <c r="L38" s="164"/>
+      <c r="M38" s="164"/>
+      <c r="N38" s="164"/>
+      <c r="O38" s="164"/>
+      <c r="P38" s="164"/>
+      <c r="Q38" s="164"/>
+      <c r="R38" s="164"/>
+      <c r="S38" s="164"/>
+      <c r="T38" s="165"/>
     </row>
     <row r="39" spans="1:20" ht="54" customHeight="1">
-      <c r="A39" s="128" t="s">
+      <c r="A39" s="171" t="s">
         <v>86</v>
       </c>
-      <c r="B39" s="129"/>
-      <c r="C39" s="129"/>
-      <c r="D39" s="129"/>
-      <c r="E39" s="129"/>
-      <c r="F39" s="129"/>
-      <c r="G39" s="129"/>
-      <c r="H39" s="129"/>
-      <c r="I39" s="129"/>
-      <c r="J39" s="129"/>
-      <c r="K39" s="129"/>
-      <c r="L39" s="129"/>
-      <c r="M39" s="129"/>
-      <c r="N39" s="129"/>
-      <c r="O39" s="129"/>
-      <c r="P39" s="129"/>
-      <c r="Q39" s="129"/>
-      <c r="R39" s="129"/>
-      <c r="S39" s="129"/>
-      <c r="T39" s="130"/>
+      <c r="B39" s="172"/>
+      <c r="C39" s="172"/>
+      <c r="D39" s="172"/>
+      <c r="E39" s="172"/>
+      <c r="F39" s="172"/>
+      <c r="G39" s="172"/>
+      <c r="H39" s="172"/>
+      <c r="I39" s="172"/>
+      <c r="J39" s="172"/>
+      <c r="K39" s="172"/>
+      <c r="L39" s="172"/>
+      <c r="M39" s="172"/>
+      <c r="N39" s="172"/>
+      <c r="O39" s="172"/>
+      <c r="P39" s="172"/>
+      <c r="Q39" s="172"/>
+      <c r="R39" s="172"/>
+      <c r="S39" s="172"/>
+      <c r="T39" s="173"/>
     </row>
     <row r="40" spans="1:20" ht="15.75">
       <c r="A40" s="57"/>
       <c r="H40" s="56"/>
     </row>
     <row r="41" spans="1:20" ht="15.75">
-      <c r="A41" s="125" t="s">
+      <c r="A41" s="163" t="s">
         <v>35</v>
       </c>
-      <c r="B41" s="126"/>
-      <c r="C41" s="126"/>
-      <c r="D41" s="126"/>
-      <c r="E41" s="126"/>
-      <c r="F41" s="126"/>
-      <c r="G41" s="126"/>
-      <c r="H41" s="126"/>
-      <c r="I41" s="126"/>
-      <c r="J41" s="126"/>
-      <c r="K41" s="126"/>
-      <c r="L41" s="126"/>
-      <c r="M41" s="126"/>
-      <c r="N41" s="126"/>
-      <c r="O41" s="126"/>
-      <c r="P41" s="126"/>
-      <c r="Q41" s="126"/>
-      <c r="R41" s="126"/>
-      <c r="S41" s="126"/>
-      <c r="T41" s="127"/>
+      <c r="B41" s="164"/>
+      <c r="C41" s="164"/>
+      <c r="D41" s="164"/>
+      <c r="E41" s="164"/>
+      <c r="F41" s="164"/>
+      <c r="G41" s="164"/>
+      <c r="H41" s="164"/>
+      <c r="I41" s="164"/>
+      <c r="J41" s="164"/>
+      <c r="K41" s="164"/>
+      <c r="L41" s="164"/>
+      <c r="M41" s="164"/>
+      <c r="N41" s="164"/>
+      <c r="O41" s="164"/>
+      <c r="P41" s="164"/>
+      <c r="Q41" s="164"/>
+      <c r="R41" s="164"/>
+      <c r="S41" s="164"/>
+      <c r="T41" s="165"/>
     </row>
     <row r="42" spans="1:20" ht="54" customHeight="1">
-      <c r="A42" s="105" t="s">
+      <c r="A42" s="109" t="s">
         <v>145</v>
       </c>
-      <c r="B42" s="131"/>
-      <c r="C42" s="131"/>
-      <c r="D42" s="131"/>
-      <c r="E42" s="131"/>
-      <c r="F42" s="131"/>
-      <c r="G42" s="131"/>
-      <c r="H42" s="131"/>
-      <c r="I42" s="131"/>
-      <c r="J42" s="131"/>
-      <c r="K42" s="131"/>
-      <c r="L42" s="131"/>
-      <c r="M42" s="131"/>
-      <c r="N42" s="131"/>
-      <c r="O42" s="131"/>
-      <c r="P42" s="131"/>
-      <c r="Q42" s="131"/>
-      <c r="R42" s="131"/>
-      <c r="S42" s="131"/>
-      <c r="T42" s="93"/>
+      <c r="B42" s="157"/>
+      <c r="C42" s="157"/>
+      <c r="D42" s="157"/>
+      <c r="E42" s="157"/>
+      <c r="F42" s="157"/>
+      <c r="G42" s="157"/>
+      <c r="H42" s="157"/>
+      <c r="I42" s="157"/>
+      <c r="J42" s="157"/>
+      <c r="K42" s="157"/>
+      <c r="L42" s="157"/>
+      <c r="M42" s="157"/>
+      <c r="N42" s="157"/>
+      <c r="O42" s="157"/>
+      <c r="P42" s="157"/>
+      <c r="Q42" s="157"/>
+      <c r="R42" s="157"/>
+      <c r="S42" s="157"/>
+      <c r="T42" s="108"/>
     </row>
     <row r="43" spans="1:20" ht="15.75">
       <c r="A43" s="57"/>
     </row>
     <row r="44" spans="1:20" ht="15.75">
-      <c r="A44" s="125" t="s">
+      <c r="A44" s="163" t="s">
         <v>36</v>
       </c>
-      <c r="B44" s="126"/>
-      <c r="C44" s="126"/>
-      <c r="D44" s="126"/>
-      <c r="E44" s="126"/>
-      <c r="F44" s="126"/>
-      <c r="G44" s="126"/>
-      <c r="H44" s="126"/>
-      <c r="I44" s="126"/>
-      <c r="J44" s="126"/>
-      <c r="K44" s="126"/>
-      <c r="L44" s="126"/>
-      <c r="M44" s="126"/>
-      <c r="N44" s="126"/>
-      <c r="O44" s="126"/>
-      <c r="P44" s="126"/>
-      <c r="Q44" s="126"/>
-      <c r="R44" s="126"/>
-      <c r="S44" s="126"/>
-      <c r="T44" s="127"/>
+      <c r="B44" s="164"/>
+      <c r="C44" s="164"/>
+      <c r="D44" s="164"/>
+      <c r="E44" s="164"/>
+      <c r="F44" s="164"/>
+      <c r="G44" s="164"/>
+      <c r="H44" s="164"/>
+      <c r="I44" s="164"/>
+      <c r="J44" s="164"/>
+      <c r="K44" s="164"/>
+      <c r="L44" s="164"/>
+      <c r="M44" s="164"/>
+      <c r="N44" s="164"/>
+      <c r="O44" s="164"/>
+      <c r="P44" s="164"/>
+      <c r="Q44" s="164"/>
+      <c r="R44" s="164"/>
+      <c r="S44" s="164"/>
+      <c r="T44" s="165"/>
     </row>
     <row r="45" spans="1:20" ht="54" customHeight="1">
-      <c r="A45" s="105"/>
-      <c r="B45" s="131"/>
-      <c r="C45" s="131"/>
-      <c r="D45" s="131"/>
-      <c r="E45" s="131"/>
-      <c r="F45" s="131"/>
-      <c r="G45" s="131"/>
-      <c r="H45" s="131"/>
-      <c r="I45" s="131"/>
-      <c r="J45" s="131"/>
-      <c r="K45" s="131"/>
-      <c r="L45" s="131"/>
-      <c r="M45" s="131"/>
-      <c r="N45" s="131"/>
-      <c r="O45" s="131"/>
-      <c r="P45" s="131"/>
-      <c r="Q45" s="131"/>
-      <c r="R45" s="131"/>
-      <c r="S45" s="131"/>
-      <c r="T45" s="93"/>
+      <c r="A45" s="109"/>
+      <c r="B45" s="157"/>
+      <c r="C45" s="157"/>
+      <c r="D45" s="157"/>
+      <c r="E45" s="157"/>
+      <c r="F45" s="157"/>
+      <c r="G45" s="157"/>
+      <c r="H45" s="157"/>
+      <c r="I45" s="157"/>
+      <c r="J45" s="157"/>
+      <c r="K45" s="157"/>
+      <c r="L45" s="157"/>
+      <c r="M45" s="157"/>
+      <c r="N45" s="157"/>
+      <c r="O45" s="157"/>
+      <c r="P45" s="157"/>
+      <c r="Q45" s="157"/>
+      <c r="R45" s="157"/>
+      <c r="S45" s="157"/>
+      <c r="T45" s="108"/>
     </row>
     <row r="46" spans="1:20" ht="15.75">
       <c r="A46" s="57"/>
@@ -6216,33 +6217,22 @@
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="59">
-    <mergeCell ref="C4:N4"/>
-    <mergeCell ref="C3:N3"/>
-    <mergeCell ref="C5:N5"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="L8:N8"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="O8:Q8"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A7:B9"/>
-    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="A1:T1"/>
+    <mergeCell ref="A38:T38"/>
+    <mergeCell ref="A39:T39"/>
+    <mergeCell ref="A41:T41"/>
+    <mergeCell ref="A42:T42"/>
+    <mergeCell ref="A33:T33"/>
+    <mergeCell ref="A36:T36"/>
+    <mergeCell ref="A35:T35"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="A22:B22"/>
     <mergeCell ref="R8:T8"/>
     <mergeCell ref="C7:T7"/>
     <mergeCell ref="A10:B10"/>
@@ -6259,22 +6249,33 @@
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="E24:F24"/>
     <mergeCell ref="G24:H24"/>
-    <mergeCell ref="A1:T1"/>
-    <mergeCell ref="A38:T38"/>
-    <mergeCell ref="A39:T39"/>
-    <mergeCell ref="A41:T41"/>
-    <mergeCell ref="A42:T42"/>
-    <mergeCell ref="A33:T33"/>
-    <mergeCell ref="A36:T36"/>
-    <mergeCell ref="A35:T35"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A7:B9"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="C4:N4"/>
+    <mergeCell ref="C3:N3"/>
+    <mergeCell ref="C5:N5"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="L8:N8"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="O8:Q8"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6302,15 +6303,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="18">
-      <c r="B1" s="214" t="s">
+      <c r="B1" s="185" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="214"/>
-      <c r="D1" s="214"/>
-      <c r="E1" s="214"/>
-      <c r="F1" s="214"/>
-      <c r="G1" s="214"/>
-      <c r="H1" s="214"/>
+      <c r="C1" s="185"/>
+      <c r="D1" s="185"/>
+      <c r="E1" s="185"/>
+      <c r="F1" s="185"/>
+      <c r="G1" s="185"/>
+      <c r="H1" s="185"/>
       <c r="I1" s="72"/>
     </row>
     <row r="2" spans="2:9" ht="18" customHeight="1">
@@ -6318,14 +6319,14 @@
         <v>16</v>
       </c>
       <c r="C2" s="184"/>
-      <c r="D2" s="211" t="str">
+      <c r="D2" s="180" t="str">
         <f>'Status Report Template'!C7</f>
         <v>Forager - Group 4</v>
       </c>
-      <c r="E2" s="212"/>
-      <c r="F2" s="212"/>
-      <c r="G2" s="212"/>
-      <c r="H2" s="213"/>
+      <c r="E2" s="181"/>
+      <c r="F2" s="181"/>
+      <c r="G2" s="181"/>
+      <c r="H2" s="182"/>
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="2:9" ht="18" customHeight="1">
@@ -6333,13 +6334,13 @@
         <v>42</v>
       </c>
       <c r="C3" s="184"/>
-      <c r="D3" s="193" t="s">
+      <c r="D3" s="209" t="s">
         <v>73</v>
       </c>
-      <c r="E3" s="194"/>
-      <c r="F3" s="194"/>
-      <c r="G3" s="194"/>
-      <c r="H3" s="195"/>
+      <c r="E3" s="210"/>
+      <c r="F3" s="210"/>
+      <c r="G3" s="210"/>
+      <c r="H3" s="211"/>
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="2:9" ht="18" customHeight="1">
@@ -6347,29 +6348,29 @@
         <v>10</v>
       </c>
       <c r="C4" s="184"/>
-      <c r="D4" s="196">
+      <c r="D4" s="212">
         <f>'Status Report Template'!C9</f>
         <v>41219</v>
       </c>
-      <c r="E4" s="197"/>
-      <c r="F4" s="197"/>
-      <c r="G4" s="197"/>
-      <c r="H4" s="198"/>
+      <c r="E4" s="213"/>
+      <c r="F4" s="213"/>
+      <c r="G4" s="213"/>
+      <c r="H4" s="214"/>
     </row>
     <row r="5" spans="2:9">
       <c r="C5" s="1"/>
       <c r="D5" s="75"/>
     </row>
     <row r="6" spans="2:9" ht="13.5" thickBot="1">
-      <c r="B6" s="208" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="209"/>
-      <c r="D6" s="209"/>
-      <c r="E6" s="209"/>
-      <c r="F6" s="209"/>
-      <c r="G6" s="209"/>
-      <c r="H6" s="210"/>
+      <c r="B6" s="177" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="178"/>
+      <c r="D6" s="178"/>
+      <c r="E6" s="178"/>
+      <c r="F6" s="178"/>
+      <c r="G6" s="178"/>
+      <c r="H6" s="179"/>
     </row>
     <row r="7" spans="2:9" ht="24.95" customHeight="1">
       <c r="B7" s="6" t="s">
@@ -6381,12 +6382,12 @@
       <c r="D7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="190" t="s">
+      <c r="E7" s="189" t="s">
         <v>65</v>
       </c>
-      <c r="F7" s="191"/>
-      <c r="G7" s="191"/>
-      <c r="H7" s="192"/>
+      <c r="F7" s="190"/>
+      <c r="G7" s="190"/>
+      <c r="H7" s="191"/>
     </row>
     <row r="8" spans="2:9" ht="24.95" customHeight="1">
       <c r="B8" s="7" t="s">
@@ -6399,12 +6400,12 @@
       <c r="D8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="177" t="s">
+      <c r="E8" s="192" t="s">
         <v>131</v>
       </c>
-      <c r="F8" s="178"/>
-      <c r="G8" s="178"/>
-      <c r="H8" s="179"/>
+      <c r="F8" s="193"/>
+      <c r="G8" s="193"/>
+      <c r="H8" s="194"/>
     </row>
     <row r="9" spans="2:9" ht="24.95" customHeight="1" thickBot="1">
       <c r="B9" s="8" t="s">
@@ -6416,10 +6417,10 @@
       <c r="D9" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="180"/>
-      <c r="F9" s="181"/>
-      <c r="G9" s="181"/>
-      <c r="H9" s="182"/>
+      <c r="E9" s="195"/>
+      <c r="F9" s="196"/>
+      <c r="G9" s="196"/>
+      <c r="H9" s="197"/>
     </row>
     <row r="10" spans="2:9" ht="24.95" customHeight="1">
       <c r="B10" s="3" t="s">
@@ -6431,10 +6432,10 @@
       <c r="D10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="202"/>
-      <c r="F10" s="203"/>
-      <c r="G10" s="203"/>
-      <c r="H10" s="204"/>
+      <c r="E10" s="186"/>
+      <c r="F10" s="187"/>
+      <c r="G10" s="187"/>
+      <c r="H10" s="188"/>
     </row>
     <row r="11" spans="2:9" ht="24.95" customHeight="1">
       <c r="B11" s="4" t="s">
@@ -6447,10 +6448,10 @@
       <c r="D11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="205"/>
-      <c r="F11" s="206"/>
-      <c r="G11" s="206"/>
-      <c r="H11" s="207"/>
+      <c r="E11" s="198"/>
+      <c r="F11" s="199"/>
+      <c r="G11" s="199"/>
+      <c r="H11" s="200"/>
     </row>
     <row r="12" spans="2:9" ht="24.95" customHeight="1" thickBot="1">
       <c r="B12" s="5" t="s">
@@ -6462,10 +6463,10 @@
       <c r="D12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="199"/>
-      <c r="F12" s="200"/>
-      <c r="G12" s="200"/>
-      <c r="H12" s="201"/>
+      <c r="E12" s="201"/>
+      <c r="F12" s="202"/>
+      <c r="G12" s="202"/>
+      <c r="H12" s="203"/>
     </row>
     <row r="13" spans="2:9" ht="24.95" customHeight="1">
       <c r="B13" s="6" t="s">
@@ -6477,10 +6478,10 @@
       <c r="D13" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="190"/>
-      <c r="F13" s="191"/>
-      <c r="G13" s="191"/>
-      <c r="H13" s="192"/>
+      <c r="E13" s="189"/>
+      <c r="F13" s="190"/>
+      <c r="G13" s="190"/>
+      <c r="H13" s="191"/>
     </row>
     <row r="14" spans="2:9" ht="24.95" customHeight="1">
       <c r="B14" s="7" t="s">
@@ -6493,10 +6494,10 @@
       <c r="D14" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="177"/>
-      <c r="F14" s="178"/>
-      <c r="G14" s="178"/>
-      <c r="H14" s="179"/>
+      <c r="E14" s="192"/>
+      <c r="F14" s="193"/>
+      <c r="G14" s="193"/>
+      <c r="H14" s="194"/>
     </row>
     <row r="15" spans="2:9" ht="24.95" customHeight="1" thickBot="1">
       <c r="B15" s="8" t="s">
@@ -6508,10 +6509,10 @@
       <c r="D15" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="180"/>
-      <c r="F15" s="181"/>
-      <c r="G15" s="181"/>
-      <c r="H15" s="182"/>
+      <c r="E15" s="195"/>
+      <c r="F15" s="196"/>
+      <c r="G15" s="196"/>
+      <c r="H15" s="197"/>
     </row>
     <row r="16" spans="2:9" ht="24.95" customHeight="1">
       <c r="B16" s="3" t="s">
@@ -6523,12 +6524,12 @@
       <c r="D16" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E16" s="185" t="s">
+      <c r="E16" s="204" t="s">
         <v>102</v>
       </c>
-      <c r="F16" s="186"/>
-      <c r="G16" s="186"/>
-      <c r="H16" s="186"/>
+      <c r="F16" s="205"/>
+      <c r="G16" s="205"/>
+      <c r="H16" s="205"/>
     </row>
     <row r="17" spans="2:8" ht="24.95" customHeight="1">
       <c r="B17" s="4" t="s">
@@ -6541,12 +6542,12 @@
       <c r="D17" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E17" s="187" t="s">
+      <c r="E17" s="206" t="s">
         <v>129</v>
       </c>
-      <c r="F17" s="188"/>
-      <c r="G17" s="188"/>
-      <c r="H17" s="188"/>
+      <c r="F17" s="207"/>
+      <c r="G17" s="207"/>
+      <c r="H17" s="207"/>
     </row>
     <row r="18" spans="2:8" ht="24.95" customHeight="1" thickBot="1">
       <c r="B18" s="5" t="s">
@@ -6558,10 +6559,10 @@
       <c r="D18" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="189"/>
-      <c r="F18" s="189"/>
-      <c r="G18" s="189"/>
-      <c r="H18" s="189"/>
+      <c r="E18" s="208"/>
+      <c r="F18" s="208"/>
+      <c r="G18" s="208"/>
+      <c r="H18" s="208"/>
     </row>
     <row r="19" spans="2:8" ht="24.95" customHeight="1">
       <c r="B19" s="6" t="s">
@@ -6573,10 +6574,10 @@
       <c r="D19" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E19" s="190"/>
-      <c r="F19" s="191"/>
-      <c r="G19" s="191"/>
-      <c r="H19" s="192"/>
+      <c r="E19" s="189"/>
+      <c r="F19" s="190"/>
+      <c r="G19" s="190"/>
+      <c r="H19" s="191"/>
     </row>
     <row r="20" spans="2:8" ht="24.95" customHeight="1">
       <c r="B20" s="7" t="s">
@@ -6589,10 +6590,10 @@
       <c r="D20" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E20" s="177"/>
-      <c r="F20" s="178"/>
-      <c r="G20" s="178"/>
-      <c r="H20" s="179"/>
+      <c r="E20" s="192"/>
+      <c r="F20" s="193"/>
+      <c r="G20" s="193"/>
+      <c r="H20" s="194"/>
     </row>
     <row r="21" spans="2:8" ht="24.95" customHeight="1" thickBot="1">
       <c r="B21" s="8" t="s">
@@ -6604,10 +6605,10 @@
       <c r="D21" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E21" s="180"/>
-      <c r="F21" s="181"/>
-      <c r="G21" s="181"/>
-      <c r="H21" s="182"/>
+      <c r="E21" s="195"/>
+      <c r="F21" s="196"/>
+      <c r="G21" s="196"/>
+      <c r="H21" s="197"/>
     </row>
     <row r="22" spans="2:8" ht="24.95" customHeight="1">
       <c r="B22" s="3" t="s">
@@ -6619,12 +6620,12 @@
       <c r="D22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E22" s="202" t="s">
+      <c r="E22" s="186" t="s">
         <v>116</v>
       </c>
-      <c r="F22" s="203"/>
-      <c r="G22" s="203"/>
-      <c r="H22" s="204"/>
+      <c r="F22" s="187"/>
+      <c r="G22" s="187"/>
+      <c r="H22" s="188"/>
     </row>
     <row r="23" spans="2:8" ht="24.95" customHeight="1">
       <c r="B23" s="4" t="s">
@@ -6637,12 +6638,12 @@
       <c r="D23" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E23" s="205" t="s">
+      <c r="E23" s="198" t="s">
         <v>117</v>
       </c>
-      <c r="F23" s="206"/>
-      <c r="G23" s="206"/>
-      <c r="H23" s="207"/>
+      <c r="F23" s="199"/>
+      <c r="G23" s="199"/>
+      <c r="H23" s="200"/>
     </row>
     <row r="24" spans="2:8" ht="24.95" customHeight="1" thickBot="1">
       <c r="B24" s="5" t="s">
@@ -6654,10 +6655,10 @@
       <c r="D24" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E24" s="199"/>
-      <c r="F24" s="200"/>
-      <c r="G24" s="200"/>
-      <c r="H24" s="201"/>
+      <c r="E24" s="201"/>
+      <c r="F24" s="202"/>
+      <c r="G24" s="202"/>
+      <c r="H24" s="203"/>
     </row>
     <row r="25" spans="2:8" ht="24.95" customHeight="1">
       <c r="B25" s="6" t="s">
@@ -6669,12 +6670,12 @@
       <c r="D25" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E25" s="190" t="s">
+      <c r="E25" s="189" t="s">
         <v>65</v>
       </c>
-      <c r="F25" s="191"/>
-      <c r="G25" s="191"/>
-      <c r="H25" s="192"/>
+      <c r="F25" s="190"/>
+      <c r="G25" s="190"/>
+      <c r="H25" s="191"/>
     </row>
     <row r="26" spans="2:8" ht="24.95" customHeight="1">
       <c r="B26" s="7" t="s">
@@ -6687,12 +6688,12 @@
       <c r="D26" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E26" s="177" t="s">
+      <c r="E26" s="192" t="s">
         <v>130</v>
       </c>
-      <c r="F26" s="178"/>
-      <c r="G26" s="178"/>
-      <c r="H26" s="179"/>
+      <c r="F26" s="193"/>
+      <c r="G26" s="193"/>
+      <c r="H26" s="194"/>
     </row>
     <row r="27" spans="2:8" ht="24.95" customHeight="1" thickBot="1">
       <c r="B27" s="8" t="s">
@@ -6704,27 +6705,14 @@
       <c r="D27" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E27" s="180"/>
-      <c r="F27" s="181"/>
-      <c r="G27" s="181"/>
-      <c r="H27" s="182"/>
+      <c r="E27" s="195"/>
+      <c r="F27" s="196"/>
+      <c r="G27" s="196"/>
+      <c r="H27" s="197"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="29">
-    <mergeCell ref="B6:H6"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="E13:H13"/>
     <mergeCell ref="E26:H26"/>
     <mergeCell ref="E27:H27"/>
     <mergeCell ref="B4:C4"/>
@@ -6741,6 +6729,19 @@
     <mergeCell ref="E24:H24"/>
     <mergeCell ref="E22:H22"/>
     <mergeCell ref="E23:H23"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="B6:H6"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="E7:H7"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6768,74 +6769,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="18">
-      <c r="B1" s="214" t="s">
+      <c r="B1" s="185" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="214"/>
-      <c r="D1" s="214"/>
-      <c r="E1" s="214"/>
-      <c r="F1" s="214"/>
-      <c r="G1" s="214"/>
-      <c r="H1" s="214"/>
+      <c r="C1" s="185"/>
+      <c r="D1" s="185"/>
+      <c r="E1" s="185"/>
+      <c r="F1" s="185"/>
+      <c r="G1" s="185"/>
+      <c r="H1" s="185"/>
       <c r="I1" s="72"/>
     </row>
     <row r="2" spans="2:9" ht="18" customHeight="1">
-      <c r="B2" s="222" t="s">
+      <c r="B2" s="227" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="223"/>
-      <c r="D2" s="224" t="str">
+      <c r="C2" s="228"/>
+      <c r="D2" s="229" t="str">
         <f>'Status Report Template'!C7</f>
         <v>Forager - Group 4</v>
       </c>
-      <c r="E2" s="224"/>
-      <c r="F2" s="224"/>
-      <c r="G2" s="224"/>
-      <c r="H2" s="224"/>
+      <c r="E2" s="229"/>
+      <c r="F2" s="229"/>
+      <c r="G2" s="229"/>
+      <c r="H2" s="229"/>
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="2:9" ht="18" customHeight="1">
-      <c r="B3" s="222" t="s">
+      <c r="B3" s="227" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="223"/>
-      <c r="D3" s="225" t="s">
+      <c r="C3" s="228"/>
+      <c r="D3" s="230" t="s">
         <v>71</v>
       </c>
-      <c r="E3" s="226"/>
-      <c r="F3" s="226"/>
-      <c r="G3" s="226"/>
-      <c r="H3" s="226"/>
+      <c r="E3" s="231"/>
+      <c r="F3" s="231"/>
+      <c r="G3" s="231"/>
+      <c r="H3" s="231"/>
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="2:9" ht="18" customHeight="1">
-      <c r="B4" s="222" t="s">
+      <c r="B4" s="227" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="223"/>
-      <c r="D4" s="227">
+      <c r="C4" s="228"/>
+      <c r="D4" s="222">
         <f>'Status Report Template'!C9</f>
         <v>41219</v>
       </c>
-      <c r="E4" s="227"/>
-      <c r="F4" s="227"/>
-      <c r="G4" s="227"/>
-      <c r="H4" s="227"/>
+      <c r="E4" s="222"/>
+      <c r="F4" s="222"/>
+      <c r="G4" s="222"/>
+      <c r="H4" s="222"/>
     </row>
     <row r="5" spans="2:9" ht="13.5" customHeight="1">
       <c r="C5" s="1"/>
       <c r="D5" s="75"/>
     </row>
     <row r="6" spans="2:9" ht="13.5" customHeight="1" thickBot="1">
-      <c r="B6" s="208" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="215"/>
-      <c r="D6" s="215"/>
-      <c r="E6" s="215"/>
-      <c r="F6" s="215"/>
-      <c r="G6" s="215"/>
-      <c r="H6" s="216"/>
+      <c r="B6" s="177" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="225"/>
+      <c r="D6" s="225"/>
+      <c r="E6" s="225"/>
+      <c r="F6" s="225"/>
+      <c r="G6" s="225"/>
+      <c r="H6" s="226"/>
     </row>
     <row r="7" spans="2:9" ht="24.95" customHeight="1">
       <c r="B7" s="6" t="s">
@@ -6847,7 +6848,7 @@
       <c r="D7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="217" t="s">
+      <c r="E7" s="224" t="s">
         <v>119</v>
       </c>
       <c r="F7" s="218"/>
@@ -6865,7 +6866,7 @@
       <c r="D8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="219" t="s">
+      <c r="E8" s="221" t="s">
         <v>118</v>
       </c>
       <c r="F8" s="220"/>
@@ -6882,10 +6883,10 @@
       <c r="D9" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="221"/>
-      <c r="F9" s="221"/>
-      <c r="G9" s="221"/>
-      <c r="H9" s="221"/>
+      <c r="E9" s="216"/>
+      <c r="F9" s="216"/>
+      <c r="G9" s="216"/>
+      <c r="H9" s="216"/>
     </row>
     <row r="10" spans="2:9" ht="24.95" customHeight="1">
       <c r="B10" s="3" t="s">
@@ -6897,12 +6898,12 @@
       <c r="D10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="202" t="s">
+      <c r="E10" s="186" t="s">
         <v>132</v>
       </c>
-      <c r="F10" s="203"/>
-      <c r="G10" s="203"/>
-      <c r="H10" s="204"/>
+      <c r="F10" s="187"/>
+      <c r="G10" s="187"/>
+      <c r="H10" s="188"/>
     </row>
     <row r="11" spans="2:9" ht="24.95" customHeight="1">
       <c r="B11" s="4" t="s">
@@ -6915,12 +6916,12 @@
       <c r="D11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="187" t="s">
+      <c r="E11" s="206" t="s">
         <v>122</v>
       </c>
-      <c r="F11" s="188"/>
-      <c r="G11" s="188"/>
-      <c r="H11" s="188"/>
+      <c r="F11" s="207"/>
+      <c r="G11" s="207"/>
+      <c r="H11" s="207"/>
     </row>
     <row r="12" spans="2:9" ht="24.95" customHeight="1" thickBot="1">
       <c r="B12" s="5" t="s">
@@ -6932,10 +6933,10 @@
       <c r="D12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="228"/>
-      <c r="F12" s="189"/>
-      <c r="G12" s="189"/>
-      <c r="H12" s="189"/>
+      <c r="E12" s="223"/>
+      <c r="F12" s="208"/>
+      <c r="G12" s="208"/>
+      <c r="H12" s="208"/>
     </row>
     <row r="13" spans="2:9" ht="24.95" customHeight="1">
       <c r="B13" s="6" t="s">
@@ -6947,7 +6948,7 @@
       <c r="D13" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="217"/>
+      <c r="E13" s="224"/>
       <c r="F13" s="218"/>
       <c r="G13" s="218"/>
       <c r="H13" s="218"/>
@@ -6963,7 +6964,7 @@
       <c r="D14" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="219"/>
+      <c r="E14" s="221"/>
       <c r="F14" s="220"/>
       <c r="G14" s="220"/>
       <c r="H14" s="220"/>
@@ -6978,10 +6979,10 @@
       <c r="D15" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="221"/>
-      <c r="F15" s="221"/>
-      <c r="G15" s="221"/>
-      <c r="H15" s="221"/>
+      <c r="E15" s="216"/>
+      <c r="F15" s="216"/>
+      <c r="G15" s="216"/>
+      <c r="H15" s="216"/>
     </row>
     <row r="16" spans="2:9" ht="24.95" customHeight="1">
       <c r="B16" s="3" t="s">
@@ -6993,12 +6994,12 @@
       <c r="D16" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E16" s="185" t="s">
+      <c r="E16" s="204" t="s">
         <v>102</v>
       </c>
-      <c r="F16" s="186"/>
-      <c r="G16" s="186"/>
-      <c r="H16" s="186"/>
+      <c r="F16" s="205"/>
+      <c r="G16" s="205"/>
+      <c r="H16" s="205"/>
     </row>
     <row r="17" spans="2:8" ht="24.95" customHeight="1">
       <c r="B17" s="4" t="s">
@@ -7011,12 +7012,12 @@
       <c r="D17" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E17" s="187" t="s">
+      <c r="E17" s="206" t="s">
         <v>115</v>
       </c>
-      <c r="F17" s="188"/>
-      <c r="G17" s="188"/>
-      <c r="H17" s="188"/>
+      <c r="F17" s="207"/>
+      <c r="G17" s="207"/>
+      <c r="H17" s="207"/>
     </row>
     <row r="18" spans="2:8" ht="24.95" customHeight="1" thickBot="1">
       <c r="B18" s="5" t="s">
@@ -7028,10 +7029,10 @@
       <c r="D18" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="189"/>
-      <c r="F18" s="189"/>
-      <c r="G18" s="189"/>
-      <c r="H18" s="189"/>
+      <c r="E18" s="208"/>
+      <c r="F18" s="208"/>
+      <c r="G18" s="208"/>
+      <c r="H18" s="208"/>
     </row>
     <row r="19" spans="2:8" ht="24.95" customHeight="1">
       <c r="B19" s="6" t="s">
@@ -7043,7 +7044,7 @@
       <c r="D19" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E19" s="229"/>
+      <c r="E19" s="217"/>
       <c r="F19" s="218"/>
       <c r="G19" s="218"/>
       <c r="H19" s="218"/>
@@ -7059,7 +7060,7 @@
       <c r="D20" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E20" s="219"/>
+      <c r="E20" s="221"/>
       <c r="F20" s="220"/>
       <c r="G20" s="220"/>
       <c r="H20" s="220"/>
@@ -7074,10 +7075,10 @@
       <c r="D21" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E21" s="221"/>
-      <c r="F21" s="221"/>
-      <c r="G21" s="221"/>
-      <c r="H21" s="221"/>
+      <c r="E21" s="216"/>
+      <c r="F21" s="216"/>
+      <c r="G21" s="216"/>
+      <c r="H21" s="216"/>
     </row>
     <row r="22" spans="2:8" ht="24.95" customHeight="1">
       <c r="B22" s="3" t="s">
@@ -7089,12 +7090,12 @@
       <c r="D22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E22" s="185" t="s">
+      <c r="E22" s="204" t="s">
         <v>116</v>
       </c>
-      <c r="F22" s="186"/>
-      <c r="G22" s="186"/>
-      <c r="H22" s="186"/>
+      <c r="F22" s="205"/>
+      <c r="G22" s="205"/>
+      <c r="H22" s="205"/>
     </row>
     <row r="23" spans="2:8" ht="24.95" customHeight="1">
       <c r="B23" s="4" t="s">
@@ -7107,12 +7108,12 @@
       <c r="D23" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E23" s="187" t="s">
+      <c r="E23" s="206" t="s">
         <v>117</v>
       </c>
-      <c r="F23" s="188"/>
-      <c r="G23" s="188"/>
-      <c r="H23" s="188"/>
+      <c r="F23" s="207"/>
+      <c r="G23" s="207"/>
+      <c r="H23" s="207"/>
     </row>
     <row r="24" spans="2:8" ht="24.95" customHeight="1" thickBot="1">
       <c r="B24" s="5" t="s">
@@ -7124,10 +7125,10 @@
       <c r="D24" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E24" s="189"/>
-      <c r="F24" s="189"/>
-      <c r="G24" s="189"/>
-      <c r="H24" s="189"/>
+      <c r="E24" s="208"/>
+      <c r="F24" s="208"/>
+      <c r="G24" s="208"/>
+      <c r="H24" s="208"/>
     </row>
     <row r="25" spans="2:8" ht="24.95" customHeight="1">
       <c r="B25" s="6" t="s">
@@ -7139,7 +7140,7 @@
       <c r="D25" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E25" s="229" t="s">
+      <c r="E25" s="217" t="s">
         <v>120</v>
       </c>
       <c r="F25" s="218"/>
@@ -7157,7 +7158,7 @@
       <c r="D26" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E26" s="231" t="s">
+      <c r="E26" s="219" t="s">
         <v>121</v>
       </c>
       <c r="F26" s="220"/>
@@ -7174,21 +7175,24 @@
       <c r="D27" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E27" s="230"/>
-      <c r="F27" s="221"/>
-      <c r="G27" s="221"/>
-      <c r="H27" s="221"/>
+      <c r="E27" s="215"/>
+      <c r="F27" s="216"/>
+      <c r="G27" s="216"/>
+      <c r="H27" s="216"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="29">
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B6:H6"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="B4:C4"/>
     <mergeCell ref="E20:H20"/>
     <mergeCell ref="D4:H4"/>
     <mergeCell ref="E10:H10"/>
@@ -7201,16 +7205,13 @@
     <mergeCell ref="E17:H17"/>
     <mergeCell ref="E18:H18"/>
     <mergeCell ref="E19:H19"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B6:H6"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="E26:H26"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7226,8 +7227,8 @@
   </sheetPr>
   <dimension ref="B1:I27"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11:H11"/>
+    <sheetView topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -7238,74 +7239,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="18">
-      <c r="B1" s="214" t="s">
+      <c r="B1" s="185" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="214"/>
-      <c r="D1" s="214"/>
-      <c r="E1" s="214"/>
-      <c r="F1" s="214"/>
-      <c r="G1" s="214"/>
-      <c r="H1" s="214"/>
+      <c r="C1" s="185"/>
+      <c r="D1" s="185"/>
+      <c r="E1" s="185"/>
+      <c r="F1" s="185"/>
+      <c r="G1" s="185"/>
+      <c r="H1" s="185"/>
       <c r="I1" s="72"/>
     </row>
     <row r="2" spans="2:9" ht="18" customHeight="1">
-      <c r="B2" s="222" t="s">
+      <c r="B2" s="227" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="223"/>
-      <c r="D2" s="224" t="str">
+      <c r="C2" s="228"/>
+      <c r="D2" s="229" t="str">
         <f>'Status Report Template'!C7</f>
         <v>Forager - Group 4</v>
       </c>
-      <c r="E2" s="224"/>
-      <c r="F2" s="224"/>
-      <c r="G2" s="224"/>
-      <c r="H2" s="224"/>
+      <c r="E2" s="229"/>
+      <c r="F2" s="229"/>
+      <c r="G2" s="229"/>
+      <c r="H2" s="229"/>
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="2:9" ht="18" customHeight="1">
-      <c r="B3" s="222" t="s">
+      <c r="B3" s="227" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="223"/>
-      <c r="D3" s="225" t="s">
+      <c r="C3" s="228"/>
+      <c r="D3" s="230" t="s">
         <v>70</v>
       </c>
-      <c r="E3" s="226"/>
-      <c r="F3" s="226"/>
-      <c r="G3" s="226"/>
-      <c r="H3" s="226"/>
+      <c r="E3" s="231"/>
+      <c r="F3" s="231"/>
+      <c r="G3" s="231"/>
+      <c r="H3" s="231"/>
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="2:9" ht="18" customHeight="1">
-      <c r="B4" s="222" t="s">
+      <c r="B4" s="227" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="223"/>
-      <c r="D4" s="227">
+      <c r="C4" s="228"/>
+      <c r="D4" s="222">
         <f>'Status Report Template'!C9</f>
         <v>41219</v>
       </c>
-      <c r="E4" s="227"/>
-      <c r="F4" s="227"/>
-      <c r="G4" s="227"/>
-      <c r="H4" s="227"/>
+      <c r="E4" s="222"/>
+      <c r="F4" s="222"/>
+      <c r="G4" s="222"/>
+      <c r="H4" s="222"/>
     </row>
     <row r="5" spans="2:9" ht="13.5" customHeight="1">
       <c r="C5" s="1"/>
       <c r="D5" s="75"/>
     </row>
     <row r="6" spans="2:9" ht="13.5" customHeight="1" thickBot="1">
-      <c r="B6" s="208" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="215"/>
-      <c r="D6" s="215"/>
-      <c r="E6" s="215"/>
-      <c r="F6" s="215"/>
-      <c r="G6" s="215"/>
-      <c r="H6" s="216"/>
+      <c r="B6" s="177" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="225"/>
+      <c r="D6" s="225"/>
+      <c r="E6" s="225"/>
+      <c r="F6" s="225"/>
+      <c r="G6" s="225"/>
+      <c r="H6" s="226"/>
     </row>
     <row r="7" spans="2:9" ht="24.95" customHeight="1">
       <c r="B7" s="6" t="s">
@@ -7317,7 +7318,7 @@
       <c r="D7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="229" t="s">
+      <c r="E7" s="217" t="s">
         <v>149</v>
       </c>
       <c r="F7" s="218"/>
@@ -7352,10 +7353,10 @@
       <c r="D9" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="221"/>
-      <c r="F9" s="221"/>
-      <c r="G9" s="221"/>
-      <c r="H9" s="221"/>
+      <c r="E9" s="216"/>
+      <c r="F9" s="216"/>
+      <c r="G9" s="216"/>
+      <c r="H9" s="216"/>
     </row>
     <row r="10" spans="2:9" ht="24.95" customHeight="1">
       <c r="B10" s="3" t="s">
@@ -7367,10 +7368,12 @@
       <c r="D10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="202"/>
-      <c r="F10" s="203"/>
-      <c r="G10" s="203"/>
-      <c r="H10" s="204"/>
+      <c r="E10" s="186" t="s">
+        <v>65</v>
+      </c>
+      <c r="F10" s="187"/>
+      <c r="G10" s="187"/>
+      <c r="H10" s="188"/>
     </row>
     <row r="11" spans="2:9" ht="24.95" customHeight="1">
       <c r="B11" s="4" t="s">
@@ -7383,25 +7386,27 @@
       <c r="D11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="187"/>
-      <c r="F11" s="188"/>
-      <c r="G11" s="188"/>
-      <c r="H11" s="188"/>
+      <c r="E11" s="206" t="s">
+        <v>151</v>
+      </c>
+      <c r="F11" s="207"/>
+      <c r="G11" s="207"/>
+      <c r="H11" s="207"/>
     </row>
     <row r="12" spans="2:9" ht="24.95" customHeight="1" thickBot="1">
       <c r="B12" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="84">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="228"/>
-      <c r="F12" s="189"/>
-      <c r="G12" s="189"/>
-      <c r="H12" s="189"/>
+      <c r="E12" s="223"/>
+      <c r="F12" s="208"/>
+      <c r="G12" s="208"/>
+      <c r="H12" s="208"/>
     </row>
     <row r="13" spans="2:9" ht="24.95" customHeight="1">
       <c r="B13" s="6" t="s">
@@ -7413,7 +7418,7 @@
       <c r="D13" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="229"/>
+      <c r="E13" s="217"/>
       <c r="F13" s="218"/>
       <c r="G13" s="218"/>
       <c r="H13" s="218"/>
@@ -7429,7 +7434,7 @@
       <c r="D14" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="231"/>
+      <c r="E14" s="219"/>
       <c r="F14" s="220"/>
       <c r="G14" s="220"/>
       <c r="H14" s="220"/>
@@ -7444,10 +7449,10 @@
       <c r="D15" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="221"/>
-      <c r="F15" s="221"/>
-      <c r="G15" s="221"/>
-      <c r="H15" s="221"/>
+      <c r="E15" s="216"/>
+      <c r="F15" s="216"/>
+      <c r="G15" s="216"/>
+      <c r="H15" s="216"/>
     </row>
     <row r="16" spans="2:9" ht="24.95" customHeight="1">
       <c r="B16" s="3" t="s">
@@ -7459,10 +7464,10 @@
       <c r="D16" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E16" s="185"/>
-      <c r="F16" s="186"/>
-      <c r="G16" s="186"/>
-      <c r="H16" s="186"/>
+      <c r="E16" s="204"/>
+      <c r="F16" s="205"/>
+      <c r="G16" s="205"/>
+      <c r="H16" s="205"/>
     </row>
     <row r="17" spans="2:8" ht="24.95" customHeight="1">
       <c r="B17" s="4" t="s">
@@ -7475,10 +7480,10 @@
       <c r="D17" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E17" s="187"/>
-      <c r="F17" s="188"/>
-      <c r="G17" s="188"/>
-      <c r="H17" s="188"/>
+      <c r="E17" s="206"/>
+      <c r="F17" s="207"/>
+      <c r="G17" s="207"/>
+      <c r="H17" s="207"/>
     </row>
     <row r="18" spans="2:8" ht="24.95" customHeight="1" thickBot="1">
       <c r="B18" s="5" t="s">
@@ -7490,10 +7495,10 @@
       <c r="D18" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="189"/>
-      <c r="F18" s="189"/>
-      <c r="G18" s="189"/>
-      <c r="H18" s="189"/>
+      <c r="E18" s="208"/>
+      <c r="F18" s="208"/>
+      <c r="G18" s="208"/>
+      <c r="H18" s="208"/>
     </row>
     <row r="19" spans="2:8" ht="24.95" customHeight="1">
       <c r="B19" s="6" t="s">
@@ -7505,7 +7510,7 @@
       <c r="D19" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E19" s="229"/>
+      <c r="E19" s="217"/>
       <c r="F19" s="218"/>
       <c r="G19" s="218"/>
       <c r="H19" s="218"/>
@@ -7521,7 +7526,7 @@
       <c r="D20" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E20" s="231"/>
+      <c r="E20" s="219"/>
       <c r="F20" s="220"/>
       <c r="G20" s="220"/>
       <c r="H20" s="220"/>
@@ -7536,10 +7541,10 @@
       <c r="D21" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E21" s="221"/>
-      <c r="F21" s="221"/>
-      <c r="G21" s="221"/>
-      <c r="H21" s="221"/>
+      <c r="E21" s="216"/>
+      <c r="F21" s="216"/>
+      <c r="G21" s="216"/>
+      <c r="H21" s="216"/>
     </row>
     <row r="22" spans="2:8" ht="24.95" customHeight="1">
       <c r="B22" s="3" t="s">
@@ -7551,12 +7556,12 @@
       <c r="D22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E22" s="185" t="s">
+      <c r="E22" s="204" t="s">
         <v>133</v>
       </c>
-      <c r="F22" s="186"/>
-      <c r="G22" s="186"/>
-      <c r="H22" s="186"/>
+      <c r="F22" s="205"/>
+      <c r="G22" s="205"/>
+      <c r="H22" s="205"/>
     </row>
     <row r="23" spans="2:8" ht="24.95" customHeight="1">
       <c r="B23" s="4" t="s">
@@ -7569,12 +7574,12 @@
       <c r="D23" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E23" s="187" t="s">
+      <c r="E23" s="206" t="s">
         <v>134</v>
       </c>
-      <c r="F23" s="188"/>
-      <c r="G23" s="188"/>
-      <c r="H23" s="188"/>
+      <c r="F23" s="207"/>
+      <c r="G23" s="207"/>
+      <c r="H23" s="207"/>
     </row>
     <row r="24" spans="2:8" ht="24.95" customHeight="1" thickBot="1">
       <c r="B24" s="5" t="s">
@@ -7586,10 +7591,10 @@
       <c r="D24" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E24" s="189"/>
-      <c r="F24" s="189"/>
-      <c r="G24" s="189"/>
-      <c r="H24" s="189"/>
+      <c r="E24" s="208"/>
+      <c r="F24" s="208"/>
+      <c r="G24" s="208"/>
+      <c r="H24" s="208"/>
     </row>
     <row r="25" spans="2:8" ht="24.95" customHeight="1">
       <c r="B25" s="6" t="s">
@@ -7636,21 +7641,24 @@
       <c r="D27" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E27" s="221"/>
-      <c r="F27" s="221"/>
-      <c r="G27" s="221"/>
-      <c r="H27" s="221"/>
+      <c r="E27" s="216"/>
+      <c r="F27" s="216"/>
+      <c r="G27" s="216"/>
+      <c r="H27" s="216"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="29">
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B6:H6"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="B4:C4"/>
     <mergeCell ref="E20:H20"/>
     <mergeCell ref="D4:H4"/>
     <mergeCell ref="E10:H10"/>
@@ -7663,16 +7671,13 @@
     <mergeCell ref="E17:H17"/>
     <mergeCell ref="E18:H18"/>
     <mergeCell ref="E19:H19"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B6:H6"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="E26:H26"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7700,74 +7705,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="18">
-      <c r="B1" s="214" t="s">
+      <c r="B1" s="185" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="214"/>
-      <c r="D1" s="214"/>
-      <c r="E1" s="214"/>
-      <c r="F1" s="214"/>
-      <c r="G1" s="214"/>
-      <c r="H1" s="214"/>
+      <c r="C1" s="185"/>
+      <c r="D1" s="185"/>
+      <c r="E1" s="185"/>
+      <c r="F1" s="185"/>
+      <c r="G1" s="185"/>
+      <c r="H1" s="185"/>
       <c r="I1" s="72"/>
     </row>
     <row r="2" spans="2:9" ht="18" customHeight="1">
-      <c r="B2" s="222" t="s">
+      <c r="B2" s="227" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="223"/>
-      <c r="D2" s="224" t="str">
+      <c r="C2" s="228"/>
+      <c r="D2" s="229" t="str">
         <f>'Status Report Template'!C7</f>
         <v>Forager - Group 4</v>
       </c>
-      <c r="E2" s="224"/>
-      <c r="F2" s="224"/>
-      <c r="G2" s="224"/>
-      <c r="H2" s="224"/>
+      <c r="E2" s="229"/>
+      <c r="F2" s="229"/>
+      <c r="G2" s="229"/>
+      <c r="H2" s="229"/>
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="2:9" ht="18" customHeight="1">
-      <c r="B3" s="222" t="s">
+      <c r="B3" s="227" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="223"/>
-      <c r="D3" s="225" t="s">
+      <c r="C3" s="228"/>
+      <c r="D3" s="230" t="s">
         <v>72</v>
       </c>
-      <c r="E3" s="226"/>
-      <c r="F3" s="226"/>
-      <c r="G3" s="226"/>
-      <c r="H3" s="226"/>
+      <c r="E3" s="231"/>
+      <c r="F3" s="231"/>
+      <c r="G3" s="231"/>
+      <c r="H3" s="231"/>
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="2:9" ht="18" customHeight="1">
-      <c r="B4" s="222" t="s">
+      <c r="B4" s="227" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="223"/>
-      <c r="D4" s="227">
+      <c r="C4" s="228"/>
+      <c r="D4" s="222">
         <f>'Status Report Template'!C9</f>
         <v>41219</v>
       </c>
-      <c r="E4" s="227"/>
-      <c r="F4" s="227"/>
-      <c r="G4" s="227"/>
-      <c r="H4" s="227"/>
+      <c r="E4" s="222"/>
+      <c r="F4" s="222"/>
+      <c r="G4" s="222"/>
+      <c r="H4" s="222"/>
     </row>
     <row r="5" spans="2:9">
       <c r="C5" s="1"/>
       <c r="D5" s="75"/>
     </row>
     <row r="6" spans="2:9" ht="13.5" thickBot="1">
-      <c r="B6" s="208" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="215"/>
-      <c r="D6" s="215"/>
-      <c r="E6" s="215"/>
-      <c r="F6" s="215"/>
-      <c r="G6" s="215"/>
-      <c r="H6" s="216"/>
+      <c r="B6" s="177" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="225"/>
+      <c r="D6" s="225"/>
+      <c r="E6" s="225"/>
+      <c r="F6" s="225"/>
+      <c r="G6" s="225"/>
+      <c r="H6" s="226"/>
     </row>
     <row r="7" spans="2:9" ht="24.95" customHeight="1">
       <c r="B7" s="6" t="s">
@@ -7779,7 +7784,7 @@
       <c r="D7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="229" t="s">
+      <c r="E7" s="217" t="s">
         <v>127</v>
       </c>
       <c r="F7" s="218"/>
@@ -7797,7 +7802,7 @@
       <c r="D8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="231" t="s">
+      <c r="E8" s="219" t="s">
         <v>128</v>
       </c>
       <c r="F8" s="220"/>
@@ -7814,10 +7819,10 @@
       <c r="D9" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="221"/>
-      <c r="F9" s="221"/>
-      <c r="G9" s="221"/>
-      <c r="H9" s="221"/>
+      <c r="E9" s="216"/>
+      <c r="F9" s="216"/>
+      <c r="G9" s="216"/>
+      <c r="H9" s="216"/>
     </row>
     <row r="10" spans="2:9" ht="24.95" customHeight="1">
       <c r="B10" s="3" t="s">
@@ -7829,10 +7834,10 @@
       <c r="D10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="202"/>
-      <c r="F10" s="203"/>
-      <c r="G10" s="203"/>
-      <c r="H10" s="204"/>
+      <c r="E10" s="186"/>
+      <c r="F10" s="187"/>
+      <c r="G10" s="187"/>
+      <c r="H10" s="188"/>
     </row>
     <row r="11" spans="2:9" ht="24.95" customHeight="1">
       <c r="B11" s="4" t="s">
@@ -7845,10 +7850,10 @@
       <c r="D11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="187"/>
-      <c r="F11" s="188"/>
-      <c r="G11" s="188"/>
-      <c r="H11" s="188"/>
+      <c r="E11" s="206"/>
+      <c r="F11" s="207"/>
+      <c r="G11" s="207"/>
+      <c r="H11" s="207"/>
     </row>
     <row r="12" spans="2:9" ht="24.95" customHeight="1" thickBot="1">
       <c r="B12" s="5" t="s">
@@ -7860,10 +7865,10 @@
       <c r="D12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="228"/>
-      <c r="F12" s="189"/>
-      <c r="G12" s="189"/>
-      <c r="H12" s="189"/>
+      <c r="E12" s="223"/>
+      <c r="F12" s="208"/>
+      <c r="G12" s="208"/>
+      <c r="H12" s="208"/>
     </row>
     <row r="13" spans="2:9" ht="24.95" customHeight="1">
       <c r="B13" s="6" t="s">
@@ -7875,7 +7880,7 @@
       <c r="D13" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="229"/>
+      <c r="E13" s="217"/>
       <c r="F13" s="218"/>
       <c r="G13" s="218"/>
       <c r="H13" s="218"/>
@@ -7891,7 +7896,7 @@
       <c r="D14" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="231"/>
+      <c r="E14" s="219"/>
       <c r="F14" s="220"/>
       <c r="G14" s="220"/>
       <c r="H14" s="220"/>
@@ -7906,10 +7911,10 @@
       <c r="D15" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="221"/>
-      <c r="F15" s="221"/>
-      <c r="G15" s="221"/>
-      <c r="H15" s="221"/>
+      <c r="E15" s="216"/>
+      <c r="F15" s="216"/>
+      <c r="G15" s="216"/>
+      <c r="H15" s="216"/>
     </row>
     <row r="16" spans="2:9" ht="24.95" customHeight="1">
       <c r="B16" s="3" t="s">
@@ -7921,10 +7926,10 @@
       <c r="D16" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E16" s="185"/>
-      <c r="F16" s="186"/>
-      <c r="G16" s="186"/>
-      <c r="H16" s="186"/>
+      <c r="E16" s="204"/>
+      <c r="F16" s="205"/>
+      <c r="G16" s="205"/>
+      <c r="H16" s="205"/>
     </row>
     <row r="17" spans="2:8" ht="24.95" customHeight="1">
       <c r="B17" s="4" t="s">
@@ -7937,10 +7942,10 @@
       <c r="D17" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E17" s="187"/>
-      <c r="F17" s="188"/>
-      <c r="G17" s="188"/>
-      <c r="H17" s="188"/>
+      <c r="E17" s="206"/>
+      <c r="F17" s="207"/>
+      <c r="G17" s="207"/>
+      <c r="H17" s="207"/>
     </row>
     <row r="18" spans="2:8" ht="24.95" customHeight="1" thickBot="1">
       <c r="B18" s="5" t="s">
@@ -7952,10 +7957,10 @@
       <c r="D18" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="189"/>
-      <c r="F18" s="189"/>
-      <c r="G18" s="189"/>
-      <c r="H18" s="189"/>
+      <c r="E18" s="208"/>
+      <c r="F18" s="208"/>
+      <c r="G18" s="208"/>
+      <c r="H18" s="208"/>
     </row>
     <row r="19" spans="2:8" ht="24.95" customHeight="1">
       <c r="B19" s="6" t="s">
@@ -7967,7 +7972,7 @@
       <c r="D19" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E19" s="229"/>
+      <c r="E19" s="217"/>
       <c r="F19" s="218"/>
       <c r="G19" s="218"/>
       <c r="H19" s="218"/>
@@ -7983,7 +7988,7 @@
       <c r="D20" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E20" s="231"/>
+      <c r="E20" s="219"/>
       <c r="F20" s="220"/>
       <c r="G20" s="220"/>
       <c r="H20" s="220"/>
@@ -7998,10 +8003,10 @@
       <c r="D21" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E21" s="221"/>
-      <c r="F21" s="221"/>
-      <c r="G21" s="221"/>
-      <c r="H21" s="221"/>
+      <c r="E21" s="216"/>
+      <c r="F21" s="216"/>
+      <c r="G21" s="216"/>
+      <c r="H21" s="216"/>
     </row>
     <row r="22" spans="2:8" ht="24.95" customHeight="1">
       <c r="B22" s="3" t="s">
@@ -8013,12 +8018,12 @@
       <c r="D22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E22" s="185" t="s">
+      <c r="E22" s="204" t="s">
         <v>123</v>
       </c>
-      <c r="F22" s="186"/>
-      <c r="G22" s="186"/>
-      <c r="H22" s="186"/>
+      <c r="F22" s="205"/>
+      <c r="G22" s="205"/>
+      <c r="H22" s="205"/>
     </row>
     <row r="23" spans="2:8" ht="24.95" customHeight="1">
       <c r="B23" s="4" t="s">
@@ -8031,12 +8036,12 @@
       <c r="D23" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E23" s="187" t="s">
+      <c r="E23" s="206" t="s">
         <v>124</v>
       </c>
-      <c r="F23" s="188"/>
-      <c r="G23" s="188"/>
-      <c r="H23" s="188"/>
+      <c r="F23" s="207"/>
+      <c r="G23" s="207"/>
+      <c r="H23" s="207"/>
     </row>
     <row r="24" spans="2:8" ht="24.95" customHeight="1" thickBot="1">
       <c r="B24" s="5" t="s">
@@ -8048,10 +8053,10 @@
       <c r="D24" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E24" s="189"/>
-      <c r="F24" s="189"/>
-      <c r="G24" s="189"/>
-      <c r="H24" s="189"/>
+      <c r="E24" s="208"/>
+      <c r="F24" s="208"/>
+      <c r="G24" s="208"/>
+      <c r="H24" s="208"/>
     </row>
     <row r="25" spans="2:8" ht="24.95" customHeight="1">
       <c r="B25" s="6" t="s">
@@ -8098,21 +8103,24 @@
       <c r="D27" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E27" s="221"/>
-      <c r="F27" s="221"/>
-      <c r="G27" s="221"/>
-      <c r="H27" s="221"/>
+      <c r="E27" s="216"/>
+      <c r="F27" s="216"/>
+      <c r="G27" s="216"/>
+      <c r="H27" s="216"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="29">
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B6:H6"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="B4:C4"/>
     <mergeCell ref="E20:H20"/>
     <mergeCell ref="D4:H4"/>
     <mergeCell ref="E10:H10"/>
@@ -8125,16 +8133,13 @@
     <mergeCell ref="E17:H17"/>
     <mergeCell ref="E18:H18"/>
     <mergeCell ref="E19:H19"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B6:H6"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="E26:H26"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -8315,7 +8320,7 @@
       </c>
       <c r="K5">
         <f>'Page 2'!S11-'Page 2'!S27</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -8341,7 +8346,7 @@
       </c>
       <c r="F6" s="79">
         <f>'Member 3 Timesheet'!C12</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G6" s="79">
         <f>'Member 3 Timesheet'!C15</f>
@@ -8353,7 +8358,7 @@
       </c>
       <c r="I6" s="79">
         <f>SUM(B6:H6)</f>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="J6" s="80" t="str">
         <f>IF('Page 2'!S12=I6, "PASS", "FAIL")</f>
@@ -8361,7 +8366,7 @@
       </c>
       <c r="K6">
         <f>'Page 2'!S12-'Page 2'!S28</f>
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -8407,7 +8412,7 @@
       </c>
       <c r="K7">
         <f>'Page 2'!S13-'Page 2'!S29</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -8432,7 +8437,7 @@
       </c>
       <c r="F8" s="79">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G8" s="79">
         <f t="shared" si="0"/>
@@ -8444,7 +8449,7 @@
       </c>
       <c r="I8" s="79">
         <f>SUM(B8:H8)</f>
-        <v>42.5</v>
+        <v>47.5</v>
       </c>
       <c r="J8" s="80" t="str">
         <f>IF('Page 2'!S14=I8, "PASS", "FAIL")</f>
@@ -8452,7 +8457,7 @@
       </c>
       <c r="K8">
         <f>'Page 2'!S14-'Page 2'!S30</f>
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -8587,7 +8592,7 @@
       <c r="J12" s="80"/>
       <c r="K12">
         <f>1-K5/'Page 2'!S11</f>
-        <v>0.76</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -8621,13 +8626,13 @@
       </c>
       <c r="H13" s="79">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I13" s="79"/>
       <c r="J13" s="80"/>
       <c r="K13">
         <f>1-K6/'Page 2'!S12</f>
-        <v>0.875</v>
+        <v>0.53846153846153844</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -8667,7 +8672,7 @@
       <c r="J14" s="80"/>
       <c r="K14">
         <f>1-K7/'Page 2'!S13</f>
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -8700,7 +8705,7 @@
       </c>
       <c r="H15" s="79">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I15" s="79"/>
       <c r="J15" s="80"/>
@@ -8815,27 +8820,27 @@
       </c>
       <c r="C20" s="81">
         <f>'Page 2'!$R11-SUM($B12:C12)*$K12</f>
-        <v>31.48</v>
+        <v>31.32</v>
       </c>
       <c r="D20" s="81">
         <f>'Page 2'!$R11-SUM($B12:D12)*$K12</f>
-        <v>31.48</v>
+        <v>31.32</v>
       </c>
       <c r="E20" s="81">
         <f>'Page 2'!$R11-SUM($B12:E12)*$K12</f>
-        <v>27.68</v>
+        <v>27.12</v>
       </c>
       <c r="F20" s="81">
         <f>'Page 2'!$R11-SUM($B12:F12)*$K12</f>
-        <v>26.54</v>
+        <v>25.86</v>
       </c>
       <c r="G20" s="81">
         <f>'Page 2'!$R11-SUM($B12:G12)*$K12</f>
-        <v>24.259999999999998</v>
+        <v>23.34</v>
       </c>
       <c r="H20" s="81">
         <f>'Page 2'!$R11-SUM($B12:H12)*$K12</f>
-        <v>23.5</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -8857,15 +8862,15 @@
       </c>
       <c r="E21" s="81">
         <f>'Page 2'!$R12-SUM($B13:E13)*$K13</f>
-        <v>23.625</v>
+        <v>25.307692307692307</v>
       </c>
       <c r="F21" s="81">
         <f>'Page 2'!$R12-SUM($B13:F13)*$K13</f>
-        <v>21.875</v>
+        <v>24.23076923076923</v>
       </c>
       <c r="G21" s="81">
         <f>'Page 2'!$R12-SUM($B13:G13)*$K13</f>
-        <v>21</v>
+        <v>23.692307692307693</v>
       </c>
       <c r="H21" s="81">
         <f>'Page 2'!$R12-SUM($B13:H13)*$K13</f>
@@ -8891,19 +8896,19 @@
       </c>
       <c r="E22" s="81">
         <f>'Page 2'!$R13-SUM($B14:E14)*$K14</f>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F22" s="81">
         <f>'Page 2'!$R13-SUM($B14:F14)*$K14</f>
-        <v>21.6</v>
+        <v>20</v>
       </c>
       <c r="G22" s="81">
         <f>'Page 2'!$R13-SUM($B14:G14)*$K14</f>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H22" s="81">
         <f>'Page 2'!$R13-SUM($B14:H14)*$K14</f>
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -8949,27 +8954,27 @@
       </c>
       <c r="C24" s="79">
         <f t="shared" si="10"/>
-        <v>118.48</v>
+        <v>118.32</v>
       </c>
       <c r="D24" s="79">
         <f t="shared" si="10"/>
-        <v>118.48</v>
+        <v>118.32</v>
       </c>
       <c r="E24" s="79">
         <f t="shared" si="10"/>
-        <v>102.97166666666666</v>
+        <v>103.09435897435897</v>
       </c>
       <c r="F24" s="79">
         <f t="shared" si="10"/>
-        <v>96.348333333333329</v>
+        <v>96.424102564102554</v>
       </c>
       <c r="G24" s="79">
         <f t="shared" si="10"/>
-        <v>90.259999999999991</v>
+        <v>90.032307692307697</v>
       </c>
       <c r="H24" s="79">
         <f t="shared" si="10"/>
-        <v>89.5</v>
+        <v>86.5</v>
       </c>
     </row>
   </sheetData>
